--- a/pidis/expdata/10016.xlsx
+++ b/pidis/expdata/10016.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jethier/Documents/fitpack/database/pdis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/pidis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6BF6F4-8A58-304B-B21C-104F707179E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24540" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="35240" yWindow="2380" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="15">
   <si>
     <t>Elab</t>
   </si>
@@ -50,15 +60,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>Apar(stat)_u</t>
-  </si>
-  <si>
-    <t>Apar(syst)</t>
-  </si>
-  <si>
-    <t>Apar(syst)_c</t>
-  </si>
-  <si>
     <t>col</t>
   </si>
   <si>
@@ -70,11 +71,23 @@
   <si>
     <t>JLabHB(EG1DVCS)</t>
   </si>
+  <si>
+    <t>stat_u</t>
+  </si>
+  <si>
+    <t>syst</t>
+  </si>
+  <si>
+    <t>syst_c</t>
+  </si>
+  <si>
+    <t>norm_c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -110,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -118,9 +131,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -134,6 +144,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -401,25 +414,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK204"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AML204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="8.83203125" style="1"/>
     <col min="5" max="6" width="8.83203125" style="2"/>
-    <col min="7" max="8" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="15.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" style="1" customWidth="1"/>
-    <col min="12" max="1025" width="8.83203125" style="1"/>
+    <col min="10" max="11" width="15" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" style="1" customWidth="1"/>
+    <col min="13" max="1026" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -442,19 +456,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>5.7</v>
       </c>
@@ -467,11 +484,11 @@
       <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G2" s="4">
         <v>7.0900000000000005E-2</v>
@@ -482,15 +499,19 @@
       <c r="I2" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="J2" s="1">
-        <f t="shared" ref="J2:J65" si="0">SIGN(G2)*I2</f>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J2" s="2">
+        <f t="shared" ref="J2:J65" si="0">G2*0.081</f>
+        <v>5.7429000000000004E-3</v>
+      </c>
+      <c r="K2" s="2">
+        <f>MAX(I2^2-J2^2,0)^0.5*SIGN(G2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>5.7</v>
       </c>
@@ -503,11 +524,11 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G3" s="4">
         <v>2.4500000000000001E-2</v>
@@ -518,15 +539,19 @@
       <c r="I3" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1.9845000000000002E-3</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K66" si="1">MAX(I3^2-J3^2,0)^0.5*SIGN(G3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>5.7</v>
       </c>
@@ -539,11 +564,11 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G4" s="4">
         <v>-1.8800000000000001E-2</v>
@@ -554,15 +579,19 @@
       <c r="I4" s="4">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>-8.9999999999999998E-4</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>-1.5228000000000002E-3</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>5.7</v>
       </c>
@@ -575,11 +604,11 @@
       <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G5" s="4">
         <v>-5.1999999999999998E-3</v>
@@ -590,15 +619,19 @@
       <c r="I5" s="4">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>-8.9999999999999998E-4</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>-4.2119999999999999E-4</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
+        <v>-7.9535561857574117E-4</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5.7</v>
       </c>
@@ -611,11 +644,11 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G6" s="4">
         <v>0.02</v>
@@ -626,15 +659,19 @@
       <c r="I6" s="4">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1.6200000000000001E-3</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>5.7</v>
       </c>
@@ -647,11 +684,11 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>12</v>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G7" s="4">
         <v>9.3299999999999994E-2</v>
@@ -662,15 +699,19 @@
       <c r="I7" s="4">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>7.5572999999999994E-3</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>5.7</v>
       </c>
@@ -683,11 +724,11 @@
       <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G8" s="4">
         <v>-9.7000000000000003E-3</v>
@@ -698,15 +739,19 @@
       <c r="I8" s="4">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>-1.6000000000000001E-3</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+        <v>-7.8570000000000007E-4</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.3937989489162343E-3</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>5.7</v>
       </c>
@@ -719,11 +764,11 @@
       <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>12</v>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G9" s="4">
         <v>4.1999999999999997E-3</v>
@@ -734,15 +779,19 @@
       <c r="I9" s="4">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+        <v>3.4019999999999998E-4</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6656121877556011E-3</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>5.7</v>
       </c>
@@ -755,11 +804,11 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>12</v>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G10" s="4">
         <v>1.5900000000000001E-2</v>
@@ -770,15 +819,19 @@
       <c r="I10" s="4">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1.2879E-3</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1096457047184024E-3</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>5.7</v>
       </c>
@@ -791,11 +844,11 @@
       <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>12</v>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G11" s="4">
         <v>2.7E-2</v>
@@ -806,15 +859,19 @@
       <c r="I11" s="4">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+        <v>2.1870000000000001E-3</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>5.7</v>
       </c>
@@ -827,11 +884,11 @@
       <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>12</v>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G12" s="4">
         <v>4.1300000000000003E-2</v>
@@ -842,15 +899,19 @@
       <c r="I12" s="4">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>3.3453000000000003E-3</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>5.7</v>
       </c>
@@ -863,11 +924,11 @@
       <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>12</v>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G13" s="4">
         <v>6.5500000000000003E-2</v>
@@ -878,15 +939,19 @@
       <c r="I13" s="4">
         <v>1.8E-3</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>1.8E-3</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+        <v>5.3055000000000003E-3</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>5.7</v>
       </c>
@@ -899,11 +964,11 @@
       <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>12</v>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G14" s="4">
         <v>-1.8100000000000002E-2</v>
@@ -914,15 +979,19 @@
       <c r="I14" s="4">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-2.7000000000000001E-3</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+        <v>-1.4661000000000001E-3</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.2672782780241161E-3</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>5.7</v>
       </c>
@@ -935,11 +1004,11 @@
       <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>12</v>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G15" s="4">
         <v>3.8899999999999997E-2</v>
@@ -950,15 +1019,19 @@
       <c r="I15" s="4">
         <v>2.8E-3</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>2.8E-3</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+        <v>3.1508999999999999E-3</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>5.7</v>
       </c>
@@ -971,11 +1044,11 @@
       <c r="D16" s="4">
         <v>2</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>12</v>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G16" s="4">
         <v>5.0500000000000003E-2</v>
@@ -986,15 +1059,19 @@
       <c r="I16" s="4">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+        <v>4.0905000000000004E-3</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>5.7</v>
       </c>
@@ -1007,11 +1084,11 @@
       <c r="D17" s="4">
         <v>2</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>12</v>
+      <c r="E17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G17" s="4">
         <v>5.74E-2</v>
@@ -1022,15 +1099,19 @@
       <c r="I17" s="4">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+        <v>4.6493999999999997E-3</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>5.7</v>
       </c>
@@ -1043,11 +1124,11 @@
       <c r="D18" s="4">
         <v>2</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>12</v>
+      <c r="E18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G18" s="4">
         <v>2.3E-3</v>
@@ -1058,15 +1139,19 @@
       <c r="I18" s="4">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1.863E-4</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6935649815811018E-3</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>5.7</v>
       </c>
@@ -1079,11 +1164,11 @@
       <c r="D19" s="4">
         <v>2</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>12</v>
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G19" s="4">
         <v>3.3700000000000001E-2</v>
@@ -1094,15 +1179,19 @@
       <c r="I19" s="4">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+        <v>2.7297000000000003E-3</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>5.7</v>
       </c>
@@ -1115,11 +1204,11 @@
       <c r="D20" s="4">
         <v>2</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>12</v>
+      <c r="E20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G20" s="4">
         <v>5.7000000000000002E-3</v>
@@ -1130,15 +1219,19 @@
       <c r="I20" s="4">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+        <v>4.6170000000000006E-4</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8630111962756975E-3</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>5.7</v>
       </c>
@@ -1151,11 +1244,11 @@
       <c r="D21" s="4">
         <v>2</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>12</v>
+      <c r="E21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G21" s="4">
         <v>6.7500000000000004E-2</v>
@@ -1166,15 +1259,19 @@
       <c r="I21" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+        <v>5.4675000000000001E-3</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>5.7</v>
       </c>
@@ -1187,11 +1284,11 @@
       <c r="D22" s="4">
         <v>2</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>12</v>
+      <c r="E22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G22" s="4">
         <v>3.7699999999999997E-2</v>
@@ -1202,15 +1299,19 @@
       <c r="I22" s="4">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+        <v>3.0536999999999999E-3</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="1"/>
+        <v>5.3377552397988401E-4</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>5.7</v>
       </c>
@@ -1223,11 +1324,11 @@
       <c r="D23" s="4">
         <v>2</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>12</v>
+      <c r="E23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G23" s="4">
         <v>9.1399999999999995E-2</v>
@@ -1238,15 +1339,19 @@
       <c r="I23" s="4">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+        <v>7.4034000000000001E-3</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>5.7</v>
       </c>
@@ -1259,11 +1364,11 @@
       <c r="D24" s="4">
         <v>3</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>12</v>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G24" s="4">
         <v>6.5699999999999995E-2</v>
@@ -1274,15 +1379,19 @@
       <c r="I24" s="4">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+        <v>5.3216999999999995E-3</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>5.7</v>
       </c>
@@ -1295,11 +1404,11 @@
       <c r="D25" s="4">
         <v>3</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>12</v>
+      <c r="E25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G25" s="4">
         <v>5.8000000000000003E-2</v>
@@ -1310,15 +1419,19 @@
       <c r="I25" s="4">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+        <v>4.6980000000000008E-3</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>5.7</v>
       </c>
@@ -1331,11 +1444,11 @@
       <c r="D26" s="4">
         <v>3</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>12</v>
+      <c r="E26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G26" s="4">
         <v>3.73E-2</v>
@@ -1346,15 +1459,19 @@
       <c r="I26" s="4">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+        <v>3.0213000000000002E-3</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9174897274883414E-3</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>5.7</v>
       </c>
@@ -1367,11 +1484,11 @@
       <c r="D27" s="4">
         <v>3</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>12</v>
+      <c r="E27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G27" s="4">
         <v>7.1300000000000002E-2</v>
@@ -1382,15 +1499,19 @@
       <c r="I27" s="4">
         <v>4.3E-3</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>4.3E-3</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+        <v>5.7753000000000006E-3</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>5.7</v>
       </c>
@@ -1403,11 +1524,11 @@
       <c r="D28" s="4">
         <v>3</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>12</v>
+      <c r="E28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G28" s="4">
         <v>5.45E-2</v>
@@ -1418,15 +1539,19 @@
       <c r="I28" s="4">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+        <v>4.4145E-3</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>5.7</v>
       </c>
@@ -1439,11 +1564,11 @@
       <c r="D29" s="4">
         <v>3</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>12</v>
+      <c r="E29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G29" s="4">
         <v>7.1199999999999999E-2</v>
@@ -1454,15 +1579,19 @@
       <c r="I29" s="4">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+        <v>5.7672000000000001E-3</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>5.7</v>
       </c>
@@ -1475,11 +1604,11 @@
       <c r="D30" s="4">
         <v>3</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>12</v>
+      <c r="E30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G30" s="4">
         <v>7.3999999999999996E-2</v>
@@ -1490,15 +1619,19 @@
       <c r="I30" s="4">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+        <v>5.9940000000000002E-3</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>5.7</v>
       </c>
@@ -1511,11 +1644,11 @@
       <c r="D31" s="4">
         <v>3</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>12</v>
+      <c r="E31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G31" s="4">
         <v>4.7800000000000002E-2</v>
@@ -1526,15 +1659,19 @@
       <c r="I31" s="4">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+        <v>3.8718000000000003E-3</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3487641602593099E-3</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>5.7</v>
       </c>
@@ -1547,11 +1684,11 @@
       <c r="D32" s="4">
         <v>3</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>12</v>
+      <c r="E32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G32" s="4">
         <v>3.1800000000000002E-2</v>
@@ -1562,15 +1699,19 @@
       <c r="I32" s="4">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+        <v>2.5758000000000001E-3</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0503400301703059E-3</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>5.7</v>
       </c>
@@ -1583,11 +1724,11 @@
       <c r="D33" s="4">
         <v>3</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>12</v>
+      <c r="E33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G33" s="4">
         <v>7.8299999999999995E-2</v>
@@ -1598,15 +1739,19 @@
       <c r="I33" s="4">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+        <v>6.3422999999999995E-3</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>5.7</v>
       </c>
@@ -1619,11 +1764,11 @@
       <c r="D34" s="4">
         <v>3</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>12</v>
+      <c r="E34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G34" s="4">
         <v>2.75E-2</v>
@@ -1634,15 +1779,19 @@
       <c r="I34" s="4">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+        <v>2.2274999999999999E-3</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="1"/>
+        <v>4.3644293727817382E-3</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>5.7</v>
       </c>
@@ -1655,11 +1804,11 @@
       <c r="D35" s="4">
         <v>3</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>12</v>
+      <c r="E35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G35" s="4">
         <v>9.4600000000000004E-2</v>
@@ -1670,15 +1819,19 @@
       <c r="I35" s="4">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+        <v>7.6626000000000003E-3</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>5.7</v>
       </c>
@@ -1691,11 +1844,11 @@
       <c r="D36" s="4">
         <v>3</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>12</v>
+      <c r="E36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G36" s="4">
         <v>0.1298</v>
@@ -1706,15 +1859,19 @@
       <c r="I36" s="4">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1.05138E-2</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>5.7</v>
       </c>
@@ -1727,11 +1884,11 @@
       <c r="D37" s="4">
         <v>4</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>12</v>
+      <c r="E37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G37" s="4">
         <v>4.9099999999999998E-2</v>
@@ -1742,15 +1899,19 @@
       <c r="I37" s="4">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>5.8999999999999999E-3</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+        <v>3.9770999999999999E-3</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="1"/>
+        <v>4.3580586951072605E-3</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>5.7</v>
       </c>
@@ -1763,11 +1924,11 @@
       <c r="D38" s="4">
         <v>4</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>12</v>
+      <c r="E38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G38" s="4">
         <v>5.5500000000000001E-2</v>
@@ -1778,15 +1939,19 @@
       <c r="I38" s="4">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+        <v>4.4955000000000004E-3</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6647618954033004E-3</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>5.7</v>
       </c>
@@ -1799,11 +1964,11 @@
       <c r="D39" s="4">
         <v>4</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>12</v>
+      <c r="E39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G39" s="4">
         <v>0.1079</v>
@@ -1814,15 +1979,19 @@
       <c r="I39" s="4">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>5.8999999999999999E-3</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+        <v>8.7399000000000001E-3</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>5.7</v>
       </c>
@@ -1835,11 +2004,11 @@
       <c r="D40" s="4">
         <v>4</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>12</v>
+      <c r="E40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G40" s="4">
         <v>0.1115</v>
@@ -1850,15 +2019,19 @@
       <c r="I40" s="4">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+        <v>9.0314999999999996E-3</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>5.7</v>
       </c>
@@ -1871,11 +2044,11 @@
       <c r="D41" s="4">
         <v>4</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>12</v>
+      <c r="E41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G41" s="4">
         <v>7.3300000000000004E-2</v>
@@ -1886,15 +2059,19 @@
       <c r="I41" s="4">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+        <v>5.9373000000000004E-3</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>5.7</v>
       </c>
@@ -1907,11 +2084,11 @@
       <c r="D42" s="4">
         <v>4</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>12</v>
+      <c r="E42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G42" s="4">
         <v>7.5800000000000006E-2</v>
@@ -1922,15 +2099,19 @@
       <c r="I42" s="4">
         <v>6.6E-3</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>6.6E-3</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+        <v>6.1398000000000008E-3</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4213335086270102E-3</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>5.7</v>
       </c>
@@ -1943,11 +2124,11 @@
       <c r="D43" s="4">
         <v>4</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>12</v>
+      <c r="E43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G43" s="4">
         <v>7.7499999999999999E-2</v>
@@ -1958,15 +2139,19 @@
       <c r="I43" s="4">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+        <v>6.2775000000000001E-3</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>5.7</v>
       </c>
@@ -1979,11 +2164,11 @@
       <c r="D44" s="4">
         <v>4</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>12</v>
+      <c r="E44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G44" s="4">
         <v>6.6500000000000004E-2</v>
@@ -1994,15 +2179,19 @@
       <c r="I44" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+        <v>5.3865000000000007E-3</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6430319237572583E-3</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>5.7</v>
       </c>
@@ -2015,11 +2204,11 @@
       <c r="D45" s="4">
         <v>4</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>12</v>
+      <c r="E45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G45" s="4">
         <v>9.6000000000000002E-2</v>
@@ -2030,15 +2219,19 @@
       <c r="I45" s="4">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+        <v>7.7760000000000008E-3</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>5.7</v>
       </c>
@@ -2051,11 +2244,11 @@
       <c r="D46" s="4">
         <v>4</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>12</v>
+      <c r="E46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G46" s="4">
         <v>7.7299999999999994E-2</v>
@@ -2066,15 +2259,19 @@
       <c r="I46" s="4">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+        <v>6.2613E-3</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8993313556749598E-3</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>5.7</v>
       </c>
@@ -2087,11 +2284,11 @@
       <c r="D47" s="4">
         <v>4</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>12</v>
+      <c r="E47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G47" s="4">
         <v>9.8299999999999998E-2</v>
@@ -2102,15 +2299,19 @@
       <c r="I47" s="4">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+        <v>7.9623000000000003E-3</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>5.7</v>
       </c>
@@ -2123,11 +2324,11 @@
       <c r="D48" s="4">
         <v>4</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>12</v>
+      <c r="E48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G48" s="4">
         <v>7.7600000000000002E-2</v>
@@ -2138,15 +2339,19 @@
       <c r="I48" s="4">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+        <v>6.2856000000000006E-3</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2046711750515133E-3</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>5.7</v>
       </c>
@@ -2159,11 +2364,11 @@
       <c r="D49" s="4">
         <v>4</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>12</v>
+      <c r="E49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G49" s="4">
         <v>9.3600000000000003E-2</v>
@@ -2174,15 +2379,19 @@
       <c r="I49" s="4">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+        <v>7.5816000000000008E-3</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>5.7</v>
       </c>
@@ -2195,11 +2404,11 @@
       <c r="D50" s="4">
         <v>4</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>12</v>
+      <c r="E50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G50" s="4">
         <v>0.1353</v>
@@ -2210,15 +2419,19 @@
       <c r="I50" s="4">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1.09593E-2</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>5.7</v>
       </c>
@@ -2231,11 +2444,11 @@
       <c r="D51" s="4">
         <v>4</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>12</v>
+      <c r="E51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G51" s="4">
         <v>6.0900000000000003E-2</v>
@@ -2246,15 +2459,19 @@
       <c r="I51" s="4">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+        <v>4.9329000000000005E-3</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" si="1"/>
+        <v>5.3811241938836532E-3</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>5.7</v>
       </c>
@@ -2267,11 +2484,11 @@
       <c r="D52" s="4">
         <v>4</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>12</v>
+      <c r="E52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G52" s="4">
         <v>0.12970000000000001</v>
@@ -2282,15 +2499,19 @@
       <c r="I52" s="4">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1.0505700000000001E-2</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>5.7</v>
       </c>
@@ -2303,11 +2524,11 @@
       <c r="D53" s="4">
         <v>4</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>12</v>
+      <c r="E53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G53" s="4">
         <v>0.156</v>
@@ -2318,15 +2539,19 @@
       <c r="I53" s="4">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1.2636E-2</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>5.7</v>
       </c>
@@ -2339,11 +2564,11 @@
       <c r="D54" s="4">
         <v>5</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>12</v>
+      <c r="E54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G54" s="4">
         <v>0.13689999999999999</v>
@@ -2354,15 +2579,19 @@
       <c r="I54" s="4">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1.10889E-2</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>5.7</v>
       </c>
@@ -2375,11 +2604,11 @@
       <c r="D55" s="4">
         <v>5</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>12</v>
+      <c r="E55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G55" s="4">
         <v>8.5000000000000006E-2</v>
@@ -2390,15 +2619,19 @@
       <c r="I55" s="4">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+        <v>6.8850000000000005E-3</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2669397699053573E-3</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>5.7</v>
       </c>
@@ -2411,11 +2644,11 @@
       <c r="D56" s="4">
         <v>5</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>12</v>
+      <c r="E56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G56" s="4">
         <v>8.3900000000000002E-2</v>
@@ -2426,15 +2659,19 @@
       <c r="I56" s="4">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+        <v>6.7959000000000006E-3</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="1"/>
+        <v>5.5906836066799553E-3</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>5.7</v>
       </c>
@@ -2447,11 +2684,11 @@
       <c r="D57" s="4">
         <v>5</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>12</v>
+      <c r="E57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G57" s="4">
         <v>0.1172</v>
@@ -2462,15 +2699,19 @@
       <c r="I57" s="4">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+        <v>9.4932000000000002E-3</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>5.7</v>
       </c>
@@ -2483,11 +2724,11 @@
       <c r="D58" s="4">
         <v>5</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>12</v>
+      <c r="E58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G58" s="4">
         <v>9.0399999999999994E-2</v>
@@ -2498,15 +2739,19 @@
       <c r="I58" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+        <v>7.3223999999999997E-3</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2221822170696674E-3</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>5.7</v>
       </c>
@@ -2519,11 +2764,11 @@
       <c r="D59" s="4">
         <v>5</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>12</v>
+      <c r="E59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G59" s="4">
         <v>0.152</v>
@@ -2534,15 +2779,19 @@
       <c r="I59" s="4">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1.2312E-2</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>5.7</v>
       </c>
@@ -2555,11 +2804,11 @@
       <c r="D60" s="4">
         <v>5</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>12</v>
+      <c r="E60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G60" s="4">
         <v>0.1137</v>
@@ -2570,15 +2819,19 @@
       <c r="I60" s="4">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+        <v>9.2096999999999995E-3</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>5.7</v>
       </c>
@@ -2591,11 +2844,11 @@
       <c r="D61" s="4">
         <v>5</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>12</v>
+      <c r="E61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G61" s="4">
         <v>9.3799999999999994E-2</v>
@@ -2606,15 +2859,19 @@
       <c r="I61" s="4">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+        <v>7.5978E-3</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" si="1"/>
+        <v>3.084385702210412E-3</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>5.7</v>
       </c>
@@ -2627,11 +2884,11 @@
       <c r="D62" s="4">
         <v>5</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>12</v>
+      <c r="E62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G62" s="4">
         <v>0.1242</v>
@@ -2642,15 +2899,19 @@
       <c r="I62" s="4">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1.00602E-2</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>5.7</v>
       </c>
@@ -2663,11 +2924,11 @@
       <c r="D63" s="4">
         <v>5</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>12</v>
+      <c r="E63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G63" s="4">
         <v>9.8000000000000004E-2</v>
@@ -2678,15 +2939,19 @@
       <c r="I63" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+        <v>7.9380000000000006E-3</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2412446286438105E-3</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>5.7</v>
       </c>
@@ -2699,11 +2964,11 @@
       <c r="D64" s="4">
         <v>5</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>12</v>
+      <c r="E64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G64" s="4">
         <v>4.24E-2</v>
@@ -2714,15 +2979,19 @@
       <c r="I64" s="4">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+        <v>3.4344000000000002E-3</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" si="1"/>
+        <v>6.8916541294525221E-3</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>5.7</v>
       </c>
@@ -2735,11 +3004,11 @@
       <c r="D65" s="4">
         <v>5</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>12</v>
+      <c r="E65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G65" s="4">
         <v>8.6800000000000002E-2</v>
@@ -2750,15 +3019,19 @@
       <c r="I65" s="4">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+        <v>7.0308000000000002E-3</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="1"/>
+        <v>5.1242415399744756E-3</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>5.7</v>
       </c>
@@ -2771,11 +3044,11 @@
       <c r="D66" s="4">
         <v>5</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>12</v>
+      <c r="E66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G66" s="4">
         <v>9.5699999999999993E-2</v>
@@ -2786,15 +3059,19 @@
       <c r="I66" s="4">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="J66" s="1">
-        <f t="shared" ref="J66:J129" si="1">SIGN(G66)*I66</f>
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J66" s="2">
+        <f t="shared" ref="J66:J129" si="2">G66*0.081</f>
+        <v>7.7516999999999994E-3</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3497121334325193E-3</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>5.7</v>
       </c>
@@ -2807,11 +3084,11 @@
       <c r="D67" s="4">
         <v>5</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>12</v>
+      <c r="E67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G67" s="4">
         <v>0.1323</v>
@@ -2822,15 +3099,19 @@
       <c r="I67" s="4">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J67" s="1">
-        <f t="shared" si="1"/>
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J67" s="2">
+        <f t="shared" si="2"/>
+        <v>1.07163E-2</v>
+      </c>
+      <c r="K67" s="2">
+        <f t="shared" ref="K67:K130" si="3">MAX(I67^2-J67^2,0)^0.5*SIGN(G67)</f>
+        <v>0</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>5.7</v>
       </c>
@@ -2843,11 +3124,11 @@
       <c r="D68" s="4">
         <v>5</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>12</v>
+      <c r="E68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G68" s="4">
         <v>0.14649999999999999</v>
@@ -2858,15 +3139,19 @@
       <c r="I68" s="4">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="J68" s="1">
-        <f t="shared" si="1"/>
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J68" s="2">
+        <f t="shared" si="2"/>
+        <v>1.18665E-2</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>5.7</v>
       </c>
@@ -2879,11 +3164,11 @@
       <c r="D69" s="4">
         <v>5</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>12</v>
+      <c r="E69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G69" s="4">
         <v>0.10829999999999999</v>
@@ -2894,15 +3179,19 @@
       <c r="I69" s="4">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="J69" s="1">
-        <f t="shared" si="1"/>
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J69" s="2">
+        <f t="shared" si="2"/>
+        <v>8.7723000000000002E-3</v>
+      </c>
+      <c r="K69" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>5.7</v>
       </c>
@@ -2915,11 +3204,11 @@
       <c r="D70" s="4">
         <v>5</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>12</v>
+      <c r="E70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G70" s="4">
         <v>0.11260000000000001</v>
@@ -2930,15 +3219,19 @@
       <c r="I70" s="4">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="J70" s="1">
-        <f t="shared" si="1"/>
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J70" s="2">
+        <f t="shared" si="2"/>
+        <v>9.1206000000000013E-3</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>5.7</v>
       </c>
@@ -2951,11 +3244,11 @@
       <c r="D71" s="4">
         <v>5</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>12</v>
+      <c r="E71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G71" s="4">
         <v>0.1057</v>
@@ -2966,15 +3259,19 @@
       <c r="I71" s="4">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="J71" s="1">
-        <f t="shared" si="1"/>
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J71" s="2">
+        <f t="shared" si="2"/>
+        <v>8.5617000000000002E-3</v>
+      </c>
+      <c r="K71" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>5.7</v>
       </c>
@@ -2987,11 +3284,11 @@
       <c r="D72" s="4">
         <v>5</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>12</v>
+      <c r="E72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G72" s="4">
         <v>0.1351</v>
@@ -3002,15 +3299,19 @@
       <c r="I72" s="4">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="J72" s="1">
-        <f t="shared" si="1"/>
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J72" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0943100000000001E-2</v>
+      </c>
+      <c r="K72" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>5.7</v>
       </c>
@@ -3023,11 +3324,11 @@
       <c r="D73" s="4">
         <v>5</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>12</v>
+      <c r="E73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G73" s="4">
         <v>0.1077</v>
@@ -3038,15 +3339,19 @@
       <c r="I73" s="4">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="J73" s="1">
-        <f t="shared" si="1"/>
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J73" s="2">
+        <f t="shared" si="2"/>
+        <v>8.7237000000000009E-3</v>
+      </c>
+      <c r="K73" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>5.7</v>
       </c>
@@ -3059,11 +3364,11 @@
       <c r="D74" s="4">
         <v>5</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>12</v>
+      <c r="E74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G74" s="4">
         <v>0.14530000000000001</v>
@@ -3074,15 +3379,19 @@
       <c r="I74" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J74" s="1">
-        <f t="shared" si="1"/>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J74" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1769300000000002E-2</v>
+      </c>
+      <c r="K74" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>5.7</v>
       </c>
@@ -3095,11 +3404,11 @@
       <c r="D75" s="4">
         <v>5</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>12</v>
+      <c r="E75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G75" s="4">
         <v>0.17199999999999999</v>
@@ -3110,15 +3419,19 @@
       <c r="I75" s="4">
         <v>1.01E-2</v>
       </c>
-      <c r="J75" s="1">
-        <f t="shared" si="1"/>
-        <v>1.01E-2</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J75" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3932E-2</v>
+      </c>
+      <c r="K75" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>5.7</v>
       </c>
@@ -3131,11 +3444,11 @@
       <c r="D76" s="4">
         <v>5</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>12</v>
+      <c r="E76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G76" s="4">
         <v>0.12839999999999999</v>
@@ -3146,15 +3459,19 @@
       <c r="I76" s="4">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J76" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="K76" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J76" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0400399999999999E-2</v>
+      </c>
+      <c r="K76" s="2">
+        <f t="shared" si="3"/>
+        <v>3.582133420184124E-3</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>5.7</v>
       </c>
@@ -3167,11 +3484,11 @@
       <c r="D77" s="4">
         <v>5</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>12</v>
+      <c r="E77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G77" s="4">
         <v>0.12889999999999999</v>
@@ -3182,15 +3499,19 @@
       <c r="I77" s="4">
         <v>1.17E-2</v>
       </c>
-      <c r="J77" s="1">
-        <f t="shared" si="1"/>
-        <v>1.17E-2</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J77" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0440899999999999E-2</v>
+      </c>
+      <c r="K77" s="2">
+        <f t="shared" si="3"/>
+        <v>5.2799249227616874E-3</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>5.7</v>
       </c>
@@ -3203,11 +3524,11 @@
       <c r="D78" s="4">
         <v>6</v>
       </c>
-      <c r="E78" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>12</v>
+      <c r="E78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G78" s="4">
         <v>0.13689999999999999</v>
@@ -3218,15 +3539,19 @@
       <c r="I78" s="4">
         <v>1.09E-2</v>
       </c>
-      <c r="J78" s="1">
-        <f t="shared" si="1"/>
-        <v>1.09E-2</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J78" s="2">
+        <f t="shared" si="2"/>
+        <v>1.10889E-2</v>
+      </c>
+      <c r="K78" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>5.7</v>
       </c>
@@ -3239,11 +3564,11 @@
       <c r="D79" s="4">
         <v>6</v>
       </c>
-      <c r="E79" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>12</v>
+      <c r="E79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G79" s="4">
         <v>0.14879999999999999</v>
@@ -3254,15 +3579,19 @@
       <c r="I79" s="4">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="J79" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J79" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2052799999999999E-2</v>
+      </c>
+      <c r="K79" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>5.7</v>
       </c>
@@ -3275,11 +3604,11 @@
       <c r="D80" s="4">
         <v>6</v>
       </c>
-      <c r="E80" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>12</v>
+      <c r="E80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G80" s="4">
         <v>0.22</v>
@@ -3290,15 +3619,19 @@
       <c r="I80" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="J80" s="1">
-        <f t="shared" si="1"/>
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J80" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7819999999999999E-2</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>5.7</v>
       </c>
@@ -3311,11 +3644,11 @@
       <c r="D81" s="4">
         <v>6</v>
       </c>
-      <c r="E81" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>12</v>
+      <c r="E81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G81" s="4">
         <v>0.20050000000000001</v>
@@ -3326,15 +3659,19 @@
       <c r="I81" s="4">
         <v>1.41E-2</v>
       </c>
-      <c r="J81" s="1">
-        <f t="shared" si="1"/>
-        <v>1.41E-2</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J81" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6240500000000001E-2</v>
+      </c>
+      <c r="K81" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>5.7</v>
       </c>
@@ -3347,11 +3684,11 @@
       <c r="D82" s="4">
         <v>6</v>
       </c>
-      <c r="E82" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>12</v>
+      <c r="E82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G82" s="4">
         <v>0.1615</v>
@@ -3362,15 +3699,19 @@
       <c r="I82" s="4">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="J82" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J82" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3081500000000001E-2</v>
+      </c>
+      <c r="K82" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>5.7</v>
       </c>
@@ -3383,11 +3724,11 @@
       <c r="D83" s="4">
         <v>6</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>12</v>
+      <c r="E83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G83" s="4">
         <v>0.13830000000000001</v>
@@ -3398,15 +3739,19 @@
       <c r="I83" s="4">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="J83" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J83" s="2">
+        <f t="shared" si="2"/>
+        <v>1.12023E-2</v>
+      </c>
+      <c r="K83" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>5.7</v>
       </c>
@@ -3419,11 +3764,11 @@
       <c r="D84" s="4">
         <v>6</v>
       </c>
-      <c r="E84" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>12</v>
+      <c r="E84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G84" s="4">
         <v>0.1331</v>
@@ -3434,15 +3779,19 @@
       <c r="I84" s="4">
         <v>1.17E-2</v>
       </c>
-      <c r="J84" s="1">
-        <f t="shared" si="1"/>
-        <v>1.17E-2</v>
-      </c>
-      <c r="K84" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J84" s="2">
+        <f t="shared" si="2"/>
+        <v>1.07811E-2</v>
+      </c>
+      <c r="K84" s="2">
+        <f t="shared" si="3"/>
+        <v>4.5450943653570055E-3</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>5.7</v>
       </c>
@@ -3455,11 +3804,11 @@
       <c r="D85" s="4">
         <v>6</v>
       </c>
-      <c r="E85" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>12</v>
+      <c r="E85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G85" s="4">
         <v>0.21099999999999999</v>
@@ -3470,15 +3819,19 @@
       <c r="I85" s="4">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="J85" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="K85" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J85" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7090999999999999E-2</v>
+      </c>
+      <c r="K85" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>5.7</v>
       </c>
@@ -3491,11 +3844,11 @@
       <c r="D86" s="4">
         <v>6</v>
       </c>
-      <c r="E86" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>12</v>
+      <c r="E86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G86" s="4">
         <v>0.13239999999999999</v>
@@ -3506,15 +3859,19 @@
       <c r="I86" s="4">
         <v>1.15E-2</v>
       </c>
-      <c r="J86" s="1">
-        <f t="shared" si="1"/>
-        <v>1.15E-2</v>
-      </c>
-      <c r="K86" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J86" s="2">
+        <f t="shared" si="2"/>
+        <v>1.07244E-2</v>
+      </c>
+      <c r="K86" s="2">
+        <f t="shared" si="3"/>
+        <v>4.151776082594049E-3</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>5.7</v>
       </c>
@@ -3527,11 +3884,11 @@
       <c r="D87" s="4">
         <v>6</v>
       </c>
-      <c r="E87" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>12</v>
+      <c r="E87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G87" s="4">
         <v>0.16569999999999999</v>
@@ -3542,15 +3899,19 @@
       <c r="I87" s="4">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="J87" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J87" s="2">
+        <f t="shared" si="2"/>
+        <v>1.34217E-2</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>5.7</v>
       </c>
@@ -3563,11 +3924,11 @@
       <c r="D88" s="4">
         <v>6</v>
       </c>
-      <c r="E88" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>12</v>
+      <c r="E88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G88" s="4">
         <v>0.1623</v>
@@ -3578,15 +3939,19 @@
       <c r="I88" s="4">
         <v>1.15E-2</v>
       </c>
-      <c r="J88" s="1">
-        <f t="shared" si="1"/>
-        <v>1.15E-2</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J88" s="2">
+        <f t="shared" si="2"/>
+        <v>1.31463E-2</v>
+      </c>
+      <c r="K88" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>5.7</v>
       </c>
@@ -3599,11 +3964,11 @@
       <c r="D89" s="4">
         <v>6</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>12</v>
+      <c r="E89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G89" s="4">
         <v>0.1517</v>
@@ -3614,15 +3979,19 @@
       <c r="I89" s="4">
         <v>1.11E-2</v>
       </c>
-      <c r="J89" s="1">
-        <f t="shared" si="1"/>
-        <v>1.11E-2</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J89" s="2">
+        <f t="shared" si="2"/>
+        <v>1.22877E-2</v>
+      </c>
+      <c r="K89" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>5.7</v>
       </c>
@@ -3635,11 +4004,11 @@
       <c r="D90" s="4">
         <v>6</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>12</v>
+      <c r="E90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G90" s="4">
         <v>0.17080000000000001</v>
@@ -3650,15 +4019,19 @@
       <c r="I90" s="4">
         <v>1.2E-2</v>
       </c>
-      <c r="J90" s="1">
-        <f t="shared" si="1"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J90" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3834800000000001E-2</v>
+      </c>
+      <c r="K90" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>5.7</v>
       </c>
@@ -3671,11 +4044,11 @@
       <c r="D91" s="4">
         <v>6</v>
       </c>
-      <c r="E91" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>12</v>
+      <c r="E91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G91" s="4">
         <v>0.1361</v>
@@ -3686,15 +4059,19 @@
       <c r="I91" s="4">
         <v>1.09E-2</v>
       </c>
-      <c r="J91" s="1">
-        <f t="shared" si="1"/>
-        <v>1.09E-2</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J91" s="2">
+        <f t="shared" si="2"/>
+        <v>1.10241E-2</v>
+      </c>
+      <c r="K91" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>5.7</v>
       </c>
@@ -3707,11 +4084,11 @@
       <c r="D92" s="4">
         <v>6</v>
       </c>
-      <c r="E92" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>12</v>
+      <c r="E92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G92" s="4">
         <v>0.15</v>
@@ -3722,15 +4099,19 @@
       <c r="I92" s="4">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J92" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J92" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2149999999999999E-2</v>
+      </c>
+      <c r="K92" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>5.7</v>
       </c>
@@ -3743,11 +4124,11 @@
       <c r="D93" s="4">
         <v>6</v>
       </c>
-      <c r="E93" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>12</v>
+      <c r="E93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G93" s="4">
         <v>0.14940000000000001</v>
@@ -3758,15 +4139,19 @@
       <c r="I93" s="4">
         <v>1.23E-2</v>
       </c>
-      <c r="J93" s="1">
-        <f t="shared" si="1"/>
-        <v>1.23E-2</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J93" s="2">
+        <f t="shared" si="2"/>
+        <v>1.21014E-2</v>
+      </c>
+      <c r="K93" s="2">
+        <f t="shared" si="3"/>
+        <v>2.2013900245072436E-3</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>5.7</v>
       </c>
@@ -3779,11 +4164,11 @@
       <c r="D94" s="4">
         <v>6</v>
       </c>
-      <c r="E94" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>12</v>
+      <c r="E94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G94" s="4">
         <v>0.20330000000000001</v>
@@ -3794,15 +4179,19 @@
       <c r="I94" s="4">
         <v>1.4E-2</v>
       </c>
-      <c r="J94" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4E-2</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J94" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6467300000000001E-2</v>
+      </c>
+      <c r="K94" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>5.7</v>
       </c>
@@ -3815,11 +4204,11 @@
       <c r="D95" s="4">
         <v>6</v>
       </c>
-      <c r="E95" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>12</v>
+      <c r="E95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G95" s="4">
         <v>0.13880000000000001</v>
@@ -3830,15 +4219,19 @@
       <c r="I95" s="4">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="J95" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0699999999999999E-2</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J95" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1242800000000001E-2</v>
+      </c>
+      <c r="K95" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>5.7</v>
       </c>
@@ -3851,11 +4244,11 @@
       <c r="D96" s="4">
         <v>6</v>
       </c>
-      <c r="E96" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>12</v>
+      <c r="E96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G96" s="4">
         <v>0.18529999999999999</v>
@@ -3866,15 +4259,19 @@
       <c r="I96" s="4">
         <v>1.21E-2</v>
       </c>
-      <c r="J96" s="1">
-        <f t="shared" si="1"/>
-        <v>1.21E-2</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J96" s="2">
+        <f t="shared" si="2"/>
+        <v>1.50093E-2</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>5.7</v>
       </c>
@@ -3887,11 +4284,11 @@
       <c r="D97" s="4">
         <v>6</v>
       </c>
-      <c r="E97" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>12</v>
+      <c r="E97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G97" s="4">
         <v>0.17810000000000001</v>
@@ -3902,15 +4299,19 @@
       <c r="I97" s="4">
         <v>1.04E-2</v>
       </c>
-      <c r="J97" s="1">
-        <f t="shared" si="1"/>
-        <v>1.04E-2</v>
-      </c>
-      <c r="K97" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J97" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4426100000000001E-2</v>
+      </c>
+      <c r="K97" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>5.7</v>
       </c>
@@ -3923,11 +4324,11 @@
       <c r="D98" s="4">
         <v>6</v>
       </c>
-      <c r="E98" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>12</v>
+      <c r="E98" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G98" s="4">
         <v>0.17299999999999999</v>
@@ -3938,15 +4339,19 @@
       <c r="I98" s="4">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="J98" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J98" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4012999999999999E-2</v>
+      </c>
+      <c r="K98" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>5.7</v>
       </c>
@@ -3959,11 +4364,11 @@
       <c r="D99" s="4">
         <v>6</v>
       </c>
-      <c r="E99" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>12</v>
+      <c r="E99" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G99" s="4">
         <v>0.21609999999999999</v>
@@ -3974,15 +4379,19 @@
       <c r="I99" s="4">
         <v>1.44E-2</v>
       </c>
-      <c r="J99" s="1">
-        <f t="shared" si="1"/>
-        <v>1.44E-2</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J99" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7504099999999998E-2</v>
+      </c>
+      <c r="K99" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>5.7</v>
       </c>
@@ -3995,11 +4404,11 @@
       <c r="D100" s="4">
         <v>6</v>
       </c>
-      <c r="E100" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>12</v>
+      <c r="E100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G100" s="4">
         <v>0.154</v>
@@ -4010,15 +4419,19 @@
       <c r="I100" s="4">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="J100" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="K100" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J100" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2474000000000001E-2</v>
+      </c>
+      <c r="K100" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A101" s="4">
         <v>5.7</v>
       </c>
@@ -4031,11 +4444,11 @@
       <c r="D101" s="4">
         <v>6</v>
       </c>
-      <c r="E101" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>12</v>
+      <c r="E101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G101" s="4">
         <v>0.12180000000000001</v>
@@ -4046,15 +4459,19 @@
       <c r="I101" s="4">
         <v>1.11E-2</v>
       </c>
-      <c r="J101" s="1">
-        <f t="shared" si="1"/>
-        <v>1.11E-2</v>
-      </c>
-      <c r="K101" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J101" s="2">
+        <f t="shared" si="2"/>
+        <v>9.865800000000001E-3</v>
+      </c>
+      <c r="K101" s="2">
+        <f t="shared" si="3"/>
+        <v>5.0868448334896151E-3</v>
+      </c>
+      <c r="L101" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A102" s="4">
         <v>5.7</v>
       </c>
@@ -4067,11 +4484,11 @@
       <c r="D102" s="4">
         <v>6</v>
       </c>
-      <c r="E102" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>12</v>
+      <c r="E102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G102" s="4">
         <v>0.20319999999999999</v>
@@ -4082,15 +4499,19 @@
       <c r="I102" s="4">
         <v>1.15E-2</v>
       </c>
-      <c r="J102" s="1">
-        <f t="shared" si="1"/>
-        <v>1.15E-2</v>
-      </c>
-      <c r="K102" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J102" s="2">
+        <f t="shared" si="2"/>
+        <v>1.64592E-2</v>
+      </c>
+      <c r="K102" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A103" s="4">
         <v>5.7</v>
       </c>
@@ -4103,11 +4524,11 @@
       <c r="D103" s="4">
         <v>6</v>
       </c>
-      <c r="E103" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>12</v>
+      <c r="E103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G103" s="4">
         <v>0.1401</v>
@@ -4118,15 +4539,19 @@
       <c r="I103" s="4">
         <v>1.34E-2</v>
       </c>
-      <c r="J103" s="1">
-        <f t="shared" si="1"/>
-        <v>1.34E-2</v>
-      </c>
-      <c r="K103" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J103" s="2">
+        <f t="shared" si="2"/>
+        <v>1.13481E-2</v>
+      </c>
+      <c r="K103" s="2">
+        <f t="shared" si="3"/>
+        <v>7.1260526513631682E-3</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="4">
         <v>5.7</v>
       </c>
@@ -4139,11 +4564,11 @@
       <c r="D104" s="4">
         <v>6</v>
       </c>
-      <c r="E104" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>12</v>
+      <c r="E104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G104" s="4">
         <v>0.152</v>
@@ -4154,15 +4579,19 @@
       <c r="I104" s="4">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="J104" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="K104" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J104" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2312E-2</v>
+      </c>
+      <c r="K104" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="4">
         <v>5.7</v>
       </c>
@@ -4175,11 +4604,11 @@
       <c r="D105" s="4">
         <v>6</v>
       </c>
-      <c r="E105" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>12</v>
+      <c r="E105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G105" s="4">
         <v>0.2021</v>
@@ -4190,15 +4619,19 @@
       <c r="I105" s="4">
         <v>1.38E-2</v>
       </c>
-      <c r="J105" s="1">
-        <f t="shared" si="1"/>
-        <v>1.38E-2</v>
-      </c>
-      <c r="K105" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J105" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6370100000000002E-2</v>
+      </c>
+      <c r="K105" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A106" s="4">
         <v>5.7</v>
       </c>
@@ -4211,11 +4644,11 @@
       <c r="D106" s="4">
         <v>6</v>
       </c>
-      <c r="E106" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>12</v>
+      <c r="E106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G106" s="4">
         <v>0.124</v>
@@ -4226,15 +4659,19 @@
       <c r="I106" s="4">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="J106" s="1">
-        <f t="shared" si="1"/>
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="K106" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J106" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0044000000000001E-2</v>
+      </c>
+      <c r="K106" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A107" s="4">
         <v>5.7</v>
       </c>
@@ -4247,11 +4684,11 @@
       <c r="D107" s="4">
         <v>7</v>
       </c>
-      <c r="E107" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>12</v>
+      <c r="E107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G107" s="4">
         <v>0.1928</v>
@@ -4262,15 +4699,19 @@
       <c r="I107" s="4">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="J107" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="K107" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J107" s="2">
+        <f t="shared" si="2"/>
+        <v>1.56168E-2</v>
+      </c>
+      <c r="K107" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="4">
         <v>5.7</v>
       </c>
@@ -4283,11 +4724,11 @@
       <c r="D108" s="4">
         <v>7</v>
       </c>
-      <c r="E108" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>12</v>
+      <c r="E108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G108" s="4">
         <v>0.17249999999999999</v>
@@ -4298,15 +4739,19 @@
       <c r="I108" s="4">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="J108" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="K108" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J108" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3972499999999999E-2</v>
+      </c>
+      <c r="K108" s="2">
+        <f t="shared" si="3"/>
+        <v>2.5316484254335266E-3</v>
+      </c>
+      <c r="L108" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="4">
         <v>5.7</v>
       </c>
@@ -4319,11 +4764,11 @@
       <c r="D109" s="4">
         <v>7</v>
       </c>
-      <c r="E109" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>12</v>
+      <c r="E109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G109" s="4">
         <v>0.105</v>
@@ -4334,15 +4779,19 @@
       <c r="I109" s="4">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="J109" s="1">
-        <f t="shared" si="1"/>
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="K109" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J109" s="2">
+        <f t="shared" si="2"/>
+        <v>8.5050000000000004E-3</v>
+      </c>
+      <c r="K109" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4525245647834407E-3</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A110" s="4">
         <v>5.7</v>
       </c>
@@ -4355,11 +4804,11 @@
       <c r="D110" s="4">
         <v>7</v>
       </c>
-      <c r="E110" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>12</v>
+      <c r="E110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G110" s="4">
         <v>0.183</v>
@@ -4370,15 +4819,19 @@
       <c r="I110" s="4">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="J110" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="K110" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J110" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4822999999999999E-2</v>
+      </c>
+      <c r="K110" s="2">
+        <f t="shared" si="3"/>
+        <v>2.8790052101376989E-3</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A111" s="4">
         <v>5.7</v>
       </c>
@@ -4391,11 +4844,11 @@
       <c r="D111" s="4">
         <v>7</v>
       </c>
-      <c r="E111" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>12</v>
+      <c r="E111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G111" s="4">
         <v>0.17460000000000001</v>
@@ -4406,15 +4859,19 @@
       <c r="I111" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="J111" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="K111" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J111" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4142600000000002E-2</v>
+      </c>
+      <c r="K111" s="2">
+        <f t="shared" si="3"/>
+        <v>7.4824371190140935E-3</v>
+      </c>
+      <c r="L111" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A112" s="4">
         <v>5.7</v>
       </c>
@@ -4427,11 +4884,11 @@
       <c r="D112" s="4">
         <v>7</v>
       </c>
-      <c r="E112" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>12</v>
+      <c r="E112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G112" s="4">
         <v>0.22969999999999999</v>
@@ -4442,15 +4899,19 @@
       <c r="I112" s="4">
         <v>1.43E-2</v>
       </c>
-      <c r="J112" s="1">
-        <f t="shared" si="1"/>
-        <v>1.43E-2</v>
-      </c>
-      <c r="K112" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J112" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8605699999999999E-2</v>
+      </c>
+      <c r="K112" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L112" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="4">
         <v>5.7</v>
       </c>
@@ -4463,11 +4924,11 @@
       <c r="D113" s="4">
         <v>7</v>
       </c>
-      <c r="E113" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>12</v>
+      <c r="E113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G113" s="4">
         <v>0.1787</v>
@@ -4478,15 +4939,19 @@
       <c r="I113" s="4">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="J113" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="K113" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J113" s="2">
+        <f t="shared" si="2"/>
+        <v>1.44747E-2</v>
+      </c>
+      <c r="K113" s="2">
+        <f t="shared" si="3"/>
+        <v>3.08594554553382E-3</v>
+      </c>
+      <c r="L113" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A114" s="4">
         <v>5.7</v>
       </c>
@@ -4499,11 +4964,11 @@
       <c r="D114" s="4">
         <v>7</v>
       </c>
-      <c r="E114" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>12</v>
+      <c r="E114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G114" s="4">
         <v>0.20319999999999999</v>
@@ -4514,15 +4979,19 @@
       <c r="I114" s="4">
         <v>1.52E-2</v>
       </c>
-      <c r="J114" s="1">
-        <f t="shared" si="1"/>
-        <v>1.52E-2</v>
-      </c>
-      <c r="K114" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J114" s="2">
+        <f t="shared" si="2"/>
+        <v>1.64592E-2</v>
+      </c>
+      <c r="K114" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L114" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A115" s="4">
         <v>5.7</v>
       </c>
@@ -4535,11 +5004,11 @@
       <c r="D115" s="4">
         <v>7</v>
       </c>
-      <c r="E115" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>12</v>
+      <c r="E115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G115" s="4">
         <v>0.2165</v>
@@ -4550,15 +5019,19 @@
       <c r="I115" s="4">
         <v>1.46E-2</v>
       </c>
-      <c r="J115" s="1">
-        <f t="shared" si="1"/>
-        <v>1.46E-2</v>
-      </c>
-      <c r="K115" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J115" s="2">
+        <f t="shared" si="2"/>
+        <v>1.75365E-2</v>
+      </c>
+      <c r="K115" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L115" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A116" s="4">
         <v>5.7</v>
       </c>
@@ -4571,11 +5044,11 @@
       <c r="D116" s="4">
         <v>7</v>
       </c>
-      <c r="E116" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>12</v>
+      <c r="E116" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G116" s="4">
         <v>0.22839999999999999</v>
@@ -4586,15 +5059,19 @@
       <c r="I116" s="4">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="J116" s="1">
-        <f t="shared" si="1"/>
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="K116" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J116" s="2">
+        <f t="shared" si="2"/>
+        <v>1.85004E-2</v>
+      </c>
+      <c r="K116" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L116" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A117" s="4">
         <v>5.7</v>
       </c>
@@ -4607,11 +5084,11 @@
       <c r="D117" s="4">
         <v>7</v>
       </c>
-      <c r="E117" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>12</v>
+      <c r="E117" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G117" s="4">
         <v>0.21199999999999999</v>
@@ -4622,15 +5099,19 @@
       <c r="I117" s="4">
         <v>1.54E-2</v>
       </c>
-      <c r="J117" s="1">
-        <f t="shared" si="1"/>
-        <v>1.54E-2</v>
-      </c>
-      <c r="K117" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J117" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7172E-2</v>
+      </c>
+      <c r="K117" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L117" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A118" s="4">
         <v>5.7</v>
       </c>
@@ -4643,11 +5124,11 @@
       <c r="D118" s="4">
         <v>7</v>
       </c>
-      <c r="E118" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>12</v>
+      <c r="E118" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G118" s="4">
         <v>0.17860000000000001</v>
@@ -4658,15 +5139,19 @@
       <c r="I118" s="4">
         <v>1.41E-2</v>
       </c>
-      <c r="J118" s="1">
-        <f t="shared" si="1"/>
-        <v>1.41E-2</v>
-      </c>
-      <c r="K118" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J118" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4466600000000001E-2</v>
+      </c>
+      <c r="K118" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L118" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="4">
         <v>5.7</v>
       </c>
@@ -4679,11 +5164,11 @@
       <c r="D119" s="4">
         <v>7</v>
       </c>
-      <c r="E119" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>12</v>
+      <c r="E119" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G119" s="4">
         <v>0.17780000000000001</v>
@@ -4694,15 +5179,19 @@
       <c r="I119" s="4">
         <v>1.41E-2</v>
       </c>
-      <c r="J119" s="1">
-        <f t="shared" si="1"/>
-        <v>1.41E-2</v>
-      </c>
-      <c r="K119" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J119" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4401800000000001E-2</v>
+      </c>
+      <c r="K119" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L119" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A120" s="4">
         <v>5.7</v>
       </c>
@@ -4715,11 +5204,11 @@
       <c r="D120" s="4">
         <v>7</v>
       </c>
-      <c r="E120" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>12</v>
+      <c r="E120" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G120" s="4">
         <v>0.1787</v>
@@ -4730,15 +5219,19 @@
       <c r="I120" s="4">
         <v>1.44E-2</v>
       </c>
-      <c r="J120" s="1">
-        <f t="shared" si="1"/>
-        <v>1.44E-2</v>
-      </c>
-      <c r="K120" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J120" s="2">
+        <f t="shared" si="2"/>
+        <v>1.44747E-2</v>
+      </c>
+      <c r="K120" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L120" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A121" s="4">
         <v>5.7</v>
       </c>
@@ -4751,11 +5244,11 @@
       <c r="D121" s="4">
         <v>7</v>
       </c>
-      <c r="E121" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>12</v>
+      <c r="E121" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G121" s="4">
         <v>0.19969999999999999</v>
@@ -4766,15 +5259,19 @@
       <c r="I121" s="4">
         <v>1.52E-2</v>
       </c>
-      <c r="J121" s="1">
-        <f t="shared" si="1"/>
-        <v>1.52E-2</v>
-      </c>
-      <c r="K121" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J121" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6175700000000001E-2</v>
+      </c>
+      <c r="K121" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L121" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A122" s="4">
         <v>5.7</v>
       </c>
@@ -4787,11 +5284,11 @@
       <c r="D122" s="4">
         <v>7</v>
       </c>
-      <c r="E122" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>12</v>
+      <c r="E122" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G122" s="4">
         <v>0.1812</v>
@@ -4802,15 +5299,19 @@
       <c r="I122" s="4">
         <v>1.4E-2</v>
       </c>
-      <c r="J122" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4E-2</v>
-      </c>
-      <c r="K122" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J122" s="2">
+        <f t="shared" si="2"/>
+        <v>1.46772E-2</v>
+      </c>
+      <c r="K122" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A123" s="4">
         <v>5.7</v>
       </c>
@@ -4823,11 +5324,11 @@
       <c r="D123" s="4">
         <v>7</v>
       </c>
-      <c r="E123" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>12</v>
+      <c r="E123" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G123" s="4">
         <v>0.23499999999999999</v>
@@ -4838,15 +5339,19 @@
       <c r="I123" s="4">
         <v>1.46E-2</v>
       </c>
-      <c r="J123" s="1">
-        <f t="shared" si="1"/>
-        <v>1.46E-2</v>
-      </c>
-      <c r="K123" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J123" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9035E-2</v>
+      </c>
+      <c r="K123" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L123" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A124" s="4">
         <v>5.7</v>
       </c>
@@ -4859,11 +5364,11 @@
       <c r="D124" s="4">
         <v>7</v>
       </c>
-      <c r="E124" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>12</v>
+      <c r="E124" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G124" s="4">
         <v>0.23300000000000001</v>
@@ -4874,15 +5379,19 @@
       <c r="I124" s="4">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="J124" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3599999999999999E-2</v>
-      </c>
-      <c r="K124" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J124" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8873000000000001E-2</v>
+      </c>
+      <c r="K124" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L124" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A125" s="4">
         <v>5.7</v>
       </c>
@@ -4895,11 +5404,11 @@
       <c r="D125" s="4">
         <v>7</v>
       </c>
-      <c r="E125" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>12</v>
+      <c r="E125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G125" s="4">
         <v>0.15720000000000001</v>
@@ -4910,15 +5419,19 @@
       <c r="I125" s="4">
         <v>1.41E-2</v>
       </c>
-      <c r="J125" s="1">
-        <f t="shared" si="1"/>
-        <v>1.41E-2</v>
-      </c>
-      <c r="K125" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J125" s="2">
+        <f t="shared" si="2"/>
+        <v>1.27332E-2</v>
+      </c>
+      <c r="K125" s="2">
+        <f t="shared" si="3"/>
+        <v>6.0560397752987072E-3</v>
+      </c>
+      <c r="L125" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A126" s="4">
         <v>5.7</v>
       </c>
@@ -4931,11 +5444,11 @@
       <c r="D126" s="4">
         <v>7</v>
       </c>
-      <c r="E126" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>12</v>
+      <c r="E126" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G126" s="4">
         <v>0.16009999999999999</v>
@@ -4946,15 +5459,19 @@
       <c r="I126" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J126" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K126" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J126" s="2">
+        <f t="shared" si="2"/>
+        <v>1.29681E-2</v>
+      </c>
+      <c r="K126" s="2">
+        <f t="shared" si="3"/>
+        <v>7.5384602134653455E-3</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A127" s="4">
         <v>5.7</v>
       </c>
@@ -4967,11 +5484,11 @@
       <c r="D127" s="4">
         <v>7</v>
       </c>
-      <c r="E127" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>12</v>
+      <c r="E127" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G127" s="4">
         <v>0.2006</v>
@@ -4982,15 +5499,19 @@
       <c r="I127" s="4">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="J127" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="K127" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J127" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6248600000000002E-2</v>
+      </c>
+      <c r="K127" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A128" s="4">
         <v>5.7</v>
       </c>
@@ -5003,11 +5524,11 @@
       <c r="D128" s="4">
         <v>7</v>
       </c>
-      <c r="E128" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>12</v>
+      <c r="E128" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G128" s="4">
         <v>0.14269999999999999</v>
@@ -5018,15 +5539,19 @@
       <c r="I128" s="4">
         <v>1.66E-2</v>
       </c>
-      <c r="J128" s="1">
-        <f t="shared" si="1"/>
-        <v>1.66E-2</v>
-      </c>
-      <c r="K128" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J128" s="2">
+        <f t="shared" si="2"/>
+        <v>1.15587E-2</v>
+      </c>
+      <c r="K128" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1914548011150066E-2</v>
+      </c>
+      <c r="L128" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A129" s="4">
         <v>5.7</v>
       </c>
@@ -5039,11 +5564,11 @@
       <c r="D129" s="4">
         <v>7</v>
       </c>
-      <c r="E129" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>12</v>
+      <c r="E129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G129" s="4">
         <v>4.6300000000000001E-2</v>
@@ -5054,15 +5579,19 @@
       <c r="I129" s="4">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="J129" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6299999999999999E-2</v>
-      </c>
-      <c r="K129" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J129" s="2">
+        <f t="shared" si="2"/>
+        <v>3.7503000000000002E-3</v>
+      </c>
+      <c r="K129" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5862699956501729E-2</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A130" s="4">
         <v>5.7</v>
       </c>
@@ -5075,11 +5604,11 @@
       <c r="D130" s="4">
         <v>7</v>
       </c>
-      <c r="E130" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>12</v>
+      <c r="E130" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G130" s="4">
         <v>0.1812</v>
@@ -5090,15 +5619,19 @@
       <c r="I130" s="4">
         <v>1.49E-2</v>
       </c>
-      <c r="J130" s="1">
-        <f t="shared" ref="J130:J193" si="2">SIGN(G130)*I130</f>
-        <v>1.49E-2</v>
-      </c>
-      <c r="K130" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J130" s="2">
+        <f t="shared" ref="J130:J193" si="4">G130*0.081</f>
+        <v>1.46772E-2</v>
+      </c>
+      <c r="K130" s="2">
+        <f t="shared" si="3"/>
+        <v>2.5670606069978195E-3</v>
+      </c>
+      <c r="L130" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A131" s="4">
         <v>5.7</v>
       </c>
@@ -5111,11 +5644,11 @@
       <c r="D131" s="4">
         <v>7</v>
       </c>
-      <c r="E131" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>12</v>
+      <c r="E131" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G131" s="4">
         <v>0.2092</v>
@@ -5126,15 +5659,19 @@
       <c r="I131" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="J131" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5299999999999999E-2</v>
-      </c>
-      <c r="K131" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J131" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6945200000000001E-2</v>
+      </c>
+      <c r="K131" s="2">
+        <f t="shared" ref="K131:K194" si="5">MAX(I131^2-J131^2,0)^0.5*SIGN(G131)</f>
+        <v>0</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A132" s="4">
         <v>5.7</v>
       </c>
@@ -5147,11 +5684,11 @@
       <c r="D132" s="4">
         <v>7</v>
       </c>
-      <c r="E132" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>12</v>
+      <c r="E132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G132" s="4">
         <v>0.19950000000000001</v>
@@ -5162,15 +5699,19 @@
       <c r="I132" s="4">
         <v>1.66E-2</v>
       </c>
-      <c r="J132" s="1">
-        <f t="shared" si="2"/>
-        <v>1.66E-2</v>
-      </c>
-      <c r="K132" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J132" s="2">
+        <f t="shared" si="4"/>
+        <v>1.61595E-2</v>
+      </c>
+      <c r="K132" s="2">
+        <f t="shared" si="5"/>
+        <v>3.7987576587616111E-3</v>
+      </c>
+      <c r="L132" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A133" s="4">
         <v>5.7</v>
       </c>
@@ -5183,11 +5724,11 @@
       <c r="D133" s="4">
         <v>7</v>
       </c>
-      <c r="E133" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>12</v>
+      <c r="E133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G133" s="4">
         <v>0.2427</v>
@@ -5198,15 +5739,19 @@
       <c r="I133" s="4">
         <v>1.72E-2</v>
       </c>
-      <c r="J133" s="1">
-        <f t="shared" si="2"/>
-        <v>1.72E-2</v>
-      </c>
-      <c r="K133" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J133" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9658700000000001E-2</v>
+      </c>
+      <c r="K133" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A134" s="4">
         <v>5.7</v>
       </c>
@@ -5219,11 +5764,11 @@
       <c r="D134" s="4">
         <v>7</v>
       </c>
-      <c r="E134" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>12</v>
+      <c r="E134" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G134" s="4">
         <v>0.20680000000000001</v>
@@ -5234,15 +5779,19 @@
       <c r="I134" s="4">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="J134" s="1">
-        <f t="shared" si="2"/>
-        <v>1.7100000000000001E-2</v>
-      </c>
-      <c r="K134" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J134" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6750800000000003E-2</v>
+      </c>
+      <c r="K134" s="2">
+        <f t="shared" si="5"/>
+        <v>3.4381243956552641E-3</v>
+      </c>
+      <c r="L134" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A135" s="4">
         <v>5.7</v>
       </c>
@@ -5255,11 +5804,11 @@
       <c r="D135" s="4">
         <v>7</v>
       </c>
-      <c r="E135" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>12</v>
+      <c r="E135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G135" s="4">
         <v>3.49E-2</v>
@@ -5270,15 +5819,19 @@
       <c r="I135" s="4">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="J135" s="1">
-        <f t="shared" si="2"/>
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="K135" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J135" s="2">
+        <f t="shared" si="4"/>
+        <v>2.8269000000000002E-3</v>
+      </c>
+      <c r="K135" s="2">
+        <f t="shared" si="5"/>
+        <v>4.6009386422772476E-3</v>
+      </c>
+      <c r="L135" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A136" s="4">
         <v>5.7</v>
       </c>
@@ -5291,11 +5844,11 @@
       <c r="D136" s="4">
         <v>8</v>
       </c>
-      <c r="E136" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>12</v>
+      <c r="E136" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G136" s="4">
         <v>0.183</v>
@@ -5306,15 +5859,19 @@
       <c r="I136" s="4">
         <v>1.83E-2</v>
       </c>
-      <c r="J136" s="1">
-        <f t="shared" si="2"/>
-        <v>1.83E-2</v>
-      </c>
-      <c r="K136" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J136" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4822999999999999E-2</v>
+      </c>
+      <c r="K136" s="2">
+        <f t="shared" si="5"/>
+        <v>1.073166673914169E-2</v>
+      </c>
+      <c r="L136" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A137" s="4">
         <v>5.7</v>
       </c>
@@ -5327,11 +5884,11 @@
       <c r="D137" s="4">
         <v>8</v>
       </c>
-      <c r="E137" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>12</v>
+      <c r="E137" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G137" s="4">
         <v>0.31830000000000003</v>
@@ -5342,15 +5899,19 @@
       <c r="I137" s="4">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="J137" s="1">
-        <f t="shared" si="2"/>
-        <v>1.9800000000000002E-2</v>
-      </c>
-      <c r="K137" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J137" s="2">
+        <f t="shared" si="4"/>
+        <v>2.5782300000000005E-2</v>
+      </c>
+      <c r="K137" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L137" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A138" s="4">
         <v>5.7</v>
       </c>
@@ -5363,11 +5924,11 @@
       <c r="D138" s="4">
         <v>8</v>
       </c>
-      <c r="E138" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>12</v>
+      <c r="E138" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G138" s="4">
         <v>0.22770000000000001</v>
@@ -5378,15 +5939,19 @@
       <c r="I138" s="4">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="J138" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="K138" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J138" s="2">
+        <f t="shared" si="4"/>
+        <v>1.84437E-2</v>
+      </c>
+      <c r="K138" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L138" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A139" s="4">
         <v>5.7</v>
       </c>
@@ -5399,11 +5964,11 @@
       <c r="D139" s="4">
         <v>8</v>
       </c>
-      <c r="E139" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>12</v>
+      <c r="E139" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G139" s="4">
         <v>0.23599999999999999</v>
@@ -5414,15 +5979,19 @@
       <c r="I139" s="4">
         <v>1.72E-2</v>
       </c>
-      <c r="J139" s="1">
-        <f t="shared" si="2"/>
-        <v>1.72E-2</v>
-      </c>
-      <c r="K139" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J139" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9116000000000001E-2</v>
+      </c>
+      <c r="K139" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L139" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A140" s="4">
         <v>5.7</v>
       </c>
@@ -5435,11 +6004,11 @@
       <c r="D140" s="4">
         <v>8</v>
       </c>
-      <c r="E140" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>12</v>
+      <c r="E140" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G140" s="4">
         <v>0.2288</v>
@@ -5450,15 +6019,19 @@
       <c r="I140" s="4">
         <v>1.9E-2</v>
       </c>
-      <c r="J140" s="1">
-        <f t="shared" si="2"/>
-        <v>1.9E-2</v>
-      </c>
-      <c r="K140" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J140" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8532800000000002E-2</v>
+      </c>
+      <c r="K140" s="2">
+        <f t="shared" si="5"/>
+        <v>4.1875200489072161E-3</v>
+      </c>
+      <c r="L140" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A141" s="4">
         <v>5.7</v>
       </c>
@@ -5471,11 +6044,11 @@
       <c r="D141" s="4">
         <v>8</v>
       </c>
-      <c r="E141" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>12</v>
+      <c r="E141" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G141" s="4">
         <v>0.24099999999999999</v>
@@ -5486,15 +6059,19 @@
       <c r="I141" s="4">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="J141" s="1">
-        <f t="shared" si="2"/>
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="K141" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J141" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9521E-2</v>
+      </c>
+      <c r="K141" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L141" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A142" s="4">
         <v>5.7</v>
       </c>
@@ -5507,11 +6084,11 @@
       <c r="D142" s="4">
         <v>8</v>
       </c>
-      <c r="E142" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>12</v>
+      <c r="E142" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G142" s="4">
         <v>0.25269999999999998</v>
@@ -5522,15 +6099,19 @@
       <c r="I142" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="J142" s="1">
-        <f t="shared" si="2"/>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="K142" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J142" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0468699999999999E-2</v>
+      </c>
+      <c r="K142" s="2">
+        <f t="shared" si="5"/>
+        <v>4.6938598519768405E-3</v>
+      </c>
+      <c r="L142" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A143" s="4">
         <v>5.7</v>
       </c>
@@ -5543,11 +6124,11 @@
       <c r="D143" s="4">
         <v>8</v>
       </c>
-      <c r="E143" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>12</v>
+      <c r="E143" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G143" s="4">
         <v>0.1804</v>
@@ -5558,15 +6139,19 @@
       <c r="I143" s="4">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="J143" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="K143" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J143" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4612400000000001E-2</v>
+      </c>
+      <c r="K143" s="2">
+        <f t="shared" si="5"/>
+        <v>1.1669094491004861E-2</v>
+      </c>
+      <c r="L143" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A144" s="4">
         <v>5.7</v>
       </c>
@@ -5579,11 +6164,11 @@
       <c r="D144" s="4">
         <v>8</v>
       </c>
-      <c r="E144" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>12</v>
+      <c r="E144" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G144" s="4">
         <v>0.24560000000000001</v>
@@ -5594,15 +6179,19 @@
       <c r="I144" s="4">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="J144" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="K144" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J144" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9893600000000001E-2</v>
+      </c>
+      <c r="K144" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L144" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A145" s="4">
         <v>5.7</v>
       </c>
@@ -5615,11 +6204,11 @@
       <c r="D145" s="4">
         <v>8</v>
       </c>
-      <c r="E145" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>12</v>
+      <c r="E145" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G145" s="4">
         <v>0.20930000000000001</v>
@@ -5630,15 +6219,19 @@
       <c r="I145" s="4">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="J145" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="K145" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J145" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6953300000000001E-2</v>
+      </c>
+      <c r="K145" s="2">
+        <f t="shared" si="5"/>
+        <v>6.3400015070976135E-3</v>
+      </c>
+      <c r="L145" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A146" s="4">
         <v>5.7</v>
       </c>
@@ -5651,11 +6244,11 @@
       <c r="D146" s="4">
         <v>8</v>
       </c>
-      <c r="E146" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>12</v>
+      <c r="E146" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G146" s="4">
         <v>0.1938</v>
@@ -5666,15 +6259,19 @@
       <c r="I146" s="4">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="J146" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="K146" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J146" s="2">
+        <f t="shared" si="4"/>
+        <v>1.5697800000000001E-2</v>
+      </c>
+      <c r="K146" s="2">
+        <f t="shared" si="5"/>
+        <v>9.7892326134380869E-3</v>
+      </c>
+      <c r="L146" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A147" s="4">
         <v>5.7</v>
       </c>
@@ -5687,11 +6284,11 @@
       <c r="D147" s="4">
         <v>8</v>
       </c>
-      <c r="E147" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>12</v>
+      <c r="E147" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G147" s="4">
         <v>0.31780000000000003</v>
@@ -5702,15 +6299,19 @@
       <c r="I147" s="4">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="J147" s="1">
-        <f t="shared" si="2"/>
-        <v>1.9800000000000002E-2</v>
-      </c>
-      <c r="K147" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J147" s="2">
+        <f t="shared" si="4"/>
+        <v>2.5741800000000002E-2</v>
+      </c>
+      <c r="K147" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L147" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A148" s="4">
         <v>5.7</v>
       </c>
@@ -5723,11 +6324,11 @@
       <c r="D148" s="4">
         <v>8</v>
       </c>
-      <c r="E148" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>12</v>
+      <c r="E148" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G148" s="4">
         <v>0.27989999999999998</v>
@@ -5738,15 +6339,19 @@
       <c r="I148" s="4">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="J148" s="1">
-        <f t="shared" si="2"/>
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="K148" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J148" s="2">
+        <f t="shared" si="4"/>
+        <v>2.2671899999999998E-2</v>
+      </c>
+      <c r="K148" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L148" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A149" s="4">
         <v>5.7</v>
       </c>
@@ -5759,11 +6364,11 @@
       <c r="D149" s="4">
         <v>8</v>
       </c>
-      <c r="E149" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>12</v>
+      <c r="E149" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G149" s="4">
         <v>0.31159999999999999</v>
@@ -5774,15 +6379,19 @@
       <c r="I149" s="4">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="J149" s="1">
-        <f t="shared" si="2"/>
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="K149" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J149" s="2">
+        <f t="shared" si="4"/>
+        <v>2.5239600000000001E-2</v>
+      </c>
+      <c r="K149" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L149" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A150" s="4">
         <v>5.7</v>
       </c>
@@ -5795,11 +6404,11 @@
       <c r="D150" s="4">
         <v>8</v>
       </c>
-      <c r="E150" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>12</v>
+      <c r="E150" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G150" s="4">
         <v>0.29420000000000002</v>
@@ -5810,15 +6419,19 @@
       <c r="I150" s="4">
         <v>1.9E-2</v>
       </c>
-      <c r="J150" s="1">
-        <f t="shared" si="2"/>
-        <v>1.9E-2</v>
-      </c>
-      <c r="K150" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J150" s="2">
+        <f t="shared" si="4"/>
+        <v>2.3830200000000003E-2</v>
+      </c>
+      <c r="K150" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L150" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A151" s="4">
         <v>5.7</v>
       </c>
@@ -5831,11 +6444,11 @@
       <c r="D151" s="4">
         <v>8</v>
       </c>
-      <c r="E151" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>12</v>
+      <c r="E151" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G151" s="4">
         <v>0.21410000000000001</v>
@@ -5846,15 +6459,19 @@
       <c r="I151" s="4">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="J151" s="1">
-        <f t="shared" si="2"/>
-        <v>1.9800000000000002E-2</v>
-      </c>
-      <c r="K151" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J151" s="2">
+        <f t="shared" si="4"/>
+        <v>1.7342100000000003E-2</v>
+      </c>
+      <c r="K151" s="2">
+        <f t="shared" si="5"/>
+        <v>9.5546620866464958E-3</v>
+      </c>
+      <c r="L151" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A152" s="4">
         <v>5.7</v>
       </c>
@@ -5867,11 +6484,11 @@
       <c r="D152" s="4">
         <v>8</v>
       </c>
-      <c r="E152" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>12</v>
+      <c r="E152" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G152" s="4">
         <v>0.2402</v>
@@ -5882,15 +6499,19 @@
       <c r="I152" s="4">
         <v>1.84E-2</v>
       </c>
-      <c r="J152" s="1">
-        <f t="shared" si="2"/>
-        <v>1.84E-2</v>
-      </c>
-      <c r="K152" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J152" s="2">
+        <f t="shared" si="4"/>
+        <v>1.94562E-2</v>
+      </c>
+      <c r="K152" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L152" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A153" s="4">
         <v>5.7</v>
       </c>
@@ -5903,11 +6524,11 @@
       <c r="D153" s="4">
         <v>8</v>
       </c>
-      <c r="E153" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>12</v>
+      <c r="E153" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G153" s="4">
         <v>0.27839999999999998</v>
@@ -5918,15 +6539,19 @@
       <c r="I153" s="4">
         <v>1.78E-2</v>
       </c>
-      <c r="J153" s="1">
-        <f t="shared" si="2"/>
-        <v>1.78E-2</v>
-      </c>
-      <c r="K153" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J153" s="2">
+        <f t="shared" si="4"/>
+        <v>2.2550399999999998E-2</v>
+      </c>
+      <c r="K153" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L153" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A154" s="4">
         <v>5.7</v>
       </c>
@@ -5939,11 +6564,11 @@
       <c r="D154" s="4">
         <v>8</v>
       </c>
-      <c r="E154" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>12</v>
+      <c r="E154" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G154" s="4">
         <v>0.24859999999999999</v>
@@ -5954,15 +6579,19 @@
       <c r="I154" s="4">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="J154" s="1">
-        <f t="shared" si="2"/>
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="K154" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J154" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0136600000000001E-2</v>
+      </c>
+      <c r="K154" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L154" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A155" s="4">
         <v>5.7</v>
       </c>
@@ -5975,11 +6604,11 @@
       <c r="D155" s="4">
         <v>8</v>
       </c>
-      <c r="E155" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" s="5" t="s">
-        <v>12</v>
+      <c r="E155" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G155" s="4">
         <v>0.22919999999999999</v>
@@ -5990,15 +6619,19 @@
       <c r="I155" s="4">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="J155" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8800000000000001E-2</v>
-      </c>
-      <c r="K155" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J155" s="2">
+        <f t="shared" si="4"/>
+        <v>1.85652E-2</v>
+      </c>
+      <c r="K155" s="2">
+        <f t="shared" si="5"/>
+        <v>2.9619839567425086E-3</v>
+      </c>
+      <c r="L155" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A156" s="4">
         <v>5.7</v>
       </c>
@@ -6011,11 +6644,11 @@
       <c r="D156" s="4">
         <v>8</v>
       </c>
-      <c r="E156" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" s="5" t="s">
-        <v>12</v>
+      <c r="E156" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G156" s="4">
         <v>0.2319</v>
@@ -6026,15 +6659,19 @@
       <c r="I156" s="4">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="J156" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="K156" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J156" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8783899999999999E-2</v>
+      </c>
+      <c r="K156" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L156" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A157" s="4">
         <v>5.7</v>
       </c>
@@ -6047,11 +6684,11 @@
       <c r="D157" s="4">
         <v>8</v>
       </c>
-      <c r="E157" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="5" t="s">
-        <v>12</v>
+      <c r="E157" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G157" s="4">
         <v>0.25209999999999999</v>
@@ -6062,15 +6699,19 @@
       <c r="I157" s="4">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="J157" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="K157" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J157" s="2">
+        <f t="shared" si="4"/>
+        <v>2.04201E-2</v>
+      </c>
+      <c r="K157" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L157" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A158" s="4">
         <v>5.7</v>
       </c>
@@ -6083,11 +6724,11 @@
       <c r="D158" s="4">
         <v>8</v>
       </c>
-      <c r="E158" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="5" t="s">
-        <v>12</v>
+      <c r="E158" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G158" s="4">
         <v>0.30199999999999999</v>
@@ -6098,15 +6739,19 @@
       <c r="I158" s="4">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="J158" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8599999999999998E-2</v>
-      </c>
-      <c r="K158" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J158" s="2">
+        <f t="shared" si="4"/>
+        <v>2.4462000000000001E-2</v>
+      </c>
+      <c r="K158" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L158" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A159" s="4">
         <v>5.7</v>
       </c>
@@ -6119,11 +6764,11 @@
       <c r="D159" s="4">
         <v>8</v>
       </c>
-      <c r="E159" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" s="5" t="s">
-        <v>12</v>
+      <c r="E159" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G159" s="4">
         <v>0.25790000000000002</v>
@@ -6134,15 +6779,19 @@
       <c r="I159" s="4">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="J159" s="1">
-        <f t="shared" si="2"/>
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="K159" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J159" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0889900000000003E-2</v>
+      </c>
+      <c r="K159" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L159" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="4">
         <v>5.7</v>
       </c>
@@ -6155,11 +6804,11 @@
       <c r="D160" s="4">
         <v>8</v>
       </c>
-      <c r="E160" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>12</v>
+      <c r="E160" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G160" s="4">
         <v>0.30809999999999998</v>
@@ -6170,15 +6819,19 @@
       <c r="I160" s="4">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="J160" s="1">
-        <f t="shared" si="2"/>
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="K160" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J160" s="2">
+        <f t="shared" si="4"/>
+        <v>2.4956099999999998E-2</v>
+      </c>
+      <c r="K160" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L160" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A161" s="4">
         <v>5.7</v>
       </c>
@@ -6191,11 +6844,11 @@
       <c r="D161" s="4">
         <v>9</v>
       </c>
-      <c r="E161" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" s="5" t="s">
-        <v>12</v>
+      <c r="E161" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G161" s="4">
         <v>0.33689999999999998</v>
@@ -6206,15 +6859,19 @@
       <c r="I161" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="J161" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3E-2</v>
-      </c>
-      <c r="K161" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J161" s="2">
+        <f t="shared" si="4"/>
+        <v>2.7288899999999998E-2</v>
+      </c>
+      <c r="K161" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L161" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="4">
         <v>5.7</v>
       </c>
@@ -6227,11 +6884,11 @@
       <c r="D162" s="4">
         <v>9</v>
       </c>
-      <c r="E162" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" s="5" t="s">
-        <v>12</v>
+      <c r="E162" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G162" s="4">
         <v>0.20649999999999999</v>
@@ -6242,15 +6899,19 @@
       <c r="I162" s="4">
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="J162" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3099999999999999E-2</v>
-      </c>
-      <c r="K162" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J162" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6726499999999998E-2</v>
+      </c>
+      <c r="K162" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5932174922150457E-2</v>
+      </c>
+      <c r="L162" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A163" s="4">
         <v>5.7</v>
       </c>
@@ -6263,11 +6924,11 @@
       <c r="D163" s="4">
         <v>9</v>
       </c>
-      <c r="E163" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F163" s="5" t="s">
-        <v>12</v>
+      <c r="E163" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G163" s="4">
         <v>0.35049999999999998</v>
@@ -6278,15 +6939,19 @@
       <c r="I163" s="4">
         <v>2.41E-2</v>
       </c>
-      <c r="J163" s="1">
-        <f t="shared" si="2"/>
-        <v>2.41E-2</v>
-      </c>
-      <c r="K163" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J163" s="2">
+        <f t="shared" si="4"/>
+        <v>2.8390499999999999E-2</v>
+      </c>
+      <c r="K163" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L163" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A164" s="4">
         <v>5.7</v>
       </c>
@@ -6299,11 +6964,11 @@
       <c r="D164" s="4">
         <v>9</v>
       </c>
-      <c r="E164" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>12</v>
+      <c r="E164" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G164" s="4">
         <v>0.36070000000000002</v>
@@ -6314,15 +6979,19 @@
       <c r="I164" s="4">
         <v>2.53E-2</v>
       </c>
-      <c r="J164" s="1">
-        <f t="shared" si="2"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="K164" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J164" s="2">
+        <f t="shared" si="4"/>
+        <v>2.9216700000000002E-2</v>
+      </c>
+      <c r="K164" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L164" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A165" s="4">
         <v>5.7</v>
       </c>
@@ -6335,11 +7004,11 @@
       <c r="D165" s="4">
         <v>9</v>
       </c>
-      <c r="E165" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>12</v>
+      <c r="E165" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G165" s="4">
         <v>0.28039999999999998</v>
@@ -6350,15 +7019,19 @@
       <c r="I165" s="4">
         <v>2.46E-2</v>
       </c>
-      <c r="J165" s="1">
-        <f t="shared" si="2"/>
-        <v>2.46E-2</v>
-      </c>
-      <c r="K165" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J165" s="2">
+        <f t="shared" si="4"/>
+        <v>2.2712400000000001E-2</v>
+      </c>
+      <c r="K165" s="2">
+        <f t="shared" si="5"/>
+        <v>9.4502320733408415E-3</v>
+      </c>
+      <c r="L165" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A166" s="4">
         <v>5.7</v>
       </c>
@@ -6371,11 +7044,11 @@
       <c r="D166" s="4">
         <v>9</v>
       </c>
-      <c r="E166" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F166" s="5" t="s">
-        <v>12</v>
+      <c r="E166" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G166" s="4">
         <v>0.22</v>
@@ -6386,15 +7059,19 @@
       <c r="I166" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="J166" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3E-2</v>
-      </c>
-      <c r="K166" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J166" s="2">
+        <f t="shared" si="4"/>
+        <v>1.7819999999999999E-2</v>
+      </c>
+      <c r="K166" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4541237911539719E-2</v>
+      </c>
+      <c r="L166" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A167" s="4">
         <v>5.7</v>
       </c>
@@ -6407,11 +7084,11 @@
       <c r="D167" s="4">
         <v>9</v>
       </c>
-      <c r="E167" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F167" s="5" t="s">
-        <v>12</v>
+      <c r="E167" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G167" s="4">
         <v>0.27129999999999999</v>
@@ -6422,15 +7099,19 @@
       <c r="I167" s="4">
         <v>2.35E-2</v>
       </c>
-      <c r="J167" s="1">
-        <f t="shared" si="2"/>
-        <v>2.35E-2</v>
-      </c>
-      <c r="K167" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J167" s="2">
+        <f t="shared" si="4"/>
+        <v>2.19753E-2</v>
+      </c>
+      <c r="K167" s="2">
+        <f t="shared" si="5"/>
+        <v>8.3268355279782023E-3</v>
+      </c>
+      <c r="L167" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A168" s="4">
         <v>5.7</v>
       </c>
@@ -6443,11 +7124,11 @@
       <c r="D168" s="4">
         <v>9</v>
       </c>
-      <c r="E168" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F168" s="5" t="s">
-        <v>12</v>
+      <c r="E168" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G168" s="4">
         <v>0.24909999999999999</v>
@@ -6458,15 +7139,19 @@
       <c r="I168" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="J168" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3E-2</v>
-      </c>
-      <c r="K168" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J168" s="2">
+        <f t="shared" si="4"/>
+        <v>2.01771E-2</v>
+      </c>
+      <c r="K168" s="2">
+        <f t="shared" si="5"/>
+        <v>1.1040137480575137E-2</v>
+      </c>
+      <c r="L168" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A169" s="4">
         <v>5.7</v>
       </c>
@@ -6479,11 +7164,11 @@
       <c r="D169" s="4">
         <v>9</v>
       </c>
-      <c r="E169" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F169" s="5" t="s">
-        <v>12</v>
+      <c r="E169" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G169" s="4">
         <v>0.29699999999999999</v>
@@ -6494,15 +7179,19 @@
       <c r="I169" s="4">
         <v>2.5100000000000001E-2</v>
       </c>
-      <c r="J169" s="1">
-        <f t="shared" si="2"/>
-        <v>2.5100000000000001E-2</v>
-      </c>
-      <c r="K169" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J169" s="2">
+        <f t="shared" si="4"/>
+        <v>2.4056999999999999E-2</v>
+      </c>
+      <c r="K169" s="2">
+        <f t="shared" si="5"/>
+        <v>7.1603596976688331E-3</v>
+      </c>
+      <c r="L169" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A170" s="4">
         <v>5.7</v>
       </c>
@@ -6515,11 +7204,11 @@
       <c r="D170" s="4">
         <v>9</v>
       </c>
-      <c r="E170" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>12</v>
+      <c r="E170" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G170" s="4">
         <v>0.28299999999999997</v>
@@ -6530,15 +7219,19 @@
       <c r="I170" s="4">
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="J170" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3800000000000002E-2</v>
-      </c>
-      <c r="K170" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J170" s="2">
+        <f t="shared" si="4"/>
+        <v>2.2922999999999999E-2</v>
+      </c>
+      <c r="K170" s="2">
+        <f t="shared" si="5"/>
+        <v>6.4012554237430734E-3</v>
+      </c>
+      <c r="L170" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A171" s="4">
         <v>5.7</v>
       </c>
@@ -6551,11 +7244,11 @@
       <c r="D171" s="4">
         <v>9</v>
       </c>
-      <c r="E171" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F171" s="5" t="s">
-        <v>12</v>
+      <c r="E171" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G171" s="4">
         <v>0.24940000000000001</v>
@@ -6566,15 +7259,19 @@
       <c r="I171" s="4">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="J171" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3599999999999999E-2</v>
-      </c>
-      <c r="K171" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J171" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0201400000000001E-2</v>
+      </c>
+      <c r="K171" s="2">
+        <f t="shared" si="5"/>
+        <v>1.2200960537597028E-2</v>
+      </c>
+      <c r="L171" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A172" s="4">
         <v>5.7</v>
       </c>
@@ -6587,11 +7284,11 @@
       <c r="D172" s="4">
         <v>9</v>
       </c>
-      <c r="E172" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F172" s="5" t="s">
-        <v>12</v>
+      <c r="E172" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G172" s="4">
         <v>0.2777</v>
@@ -6602,15 +7299,19 @@
       <c r="I172" s="4">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="J172" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="K172" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J172" s="2">
+        <f t="shared" si="4"/>
+        <v>2.2493700000000002E-2</v>
+      </c>
+      <c r="K172" s="2">
+        <f t="shared" si="5"/>
+        <v>5.6809735354074516E-3</v>
+      </c>
+      <c r="L172" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A173" s="4">
         <v>5.7</v>
       </c>
@@ -6623,11 +7324,11 @@
       <c r="D173" s="4">
         <v>9</v>
       </c>
-      <c r="E173" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F173" s="5" t="s">
-        <v>12</v>
+      <c r="E173" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G173" s="4">
         <v>0.28970000000000001</v>
@@ -6638,15 +7339,19 @@
       <c r="I173" s="4">
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="J173" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3800000000000002E-2</v>
-      </c>
-      <c r="K173" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J173" s="2">
+        <f t="shared" si="4"/>
+        <v>2.3465700000000003E-2</v>
+      </c>
+      <c r="K173" s="2">
+        <f t="shared" si="5"/>
+        <v>3.9750375482503278E-3</v>
+      </c>
+      <c r="L173" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A174" s="4">
         <v>5.7</v>
       </c>
@@ -6659,11 +7364,11 @@
       <c r="D174" s="4">
         <v>9</v>
       </c>
-      <c r="E174" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F174" s="5" t="s">
-        <v>12</v>
+      <c r="E174" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G174" s="4">
         <v>0.38369999999999999</v>
@@ -6674,15 +7379,19 @@
       <c r="I174" s="4">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="J174" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="K174" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J174" s="2">
+        <f t="shared" si="4"/>
+        <v>3.1079699999999998E-2</v>
+      </c>
+      <c r="K174" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L174" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A175" s="4">
         <v>5.7</v>
       </c>
@@ -6695,11 +7404,11 @@
       <c r="D175" s="4">
         <v>9</v>
       </c>
-      <c r="E175" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F175" s="5" t="s">
-        <v>12</v>
+      <c r="E175" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G175" s="4">
         <v>0.35020000000000001</v>
@@ -6710,15 +7419,19 @@
       <c r="I175" s="4">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="J175" s="1">
-        <f t="shared" si="2"/>
-        <v>2.5399999999999999E-2</v>
-      </c>
-      <c r="K175" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J175" s="2">
+        <f t="shared" si="4"/>
+        <v>2.8366200000000001E-2</v>
+      </c>
+      <c r="K175" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L175" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A176" s="4">
         <v>5.7</v>
       </c>
@@ -6731,11 +7444,11 @@
       <c r="D176" s="4">
         <v>9</v>
       </c>
-      <c r="E176" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F176" s="5" t="s">
-        <v>12</v>
+      <c r="E176" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G176" s="4">
         <v>0.25309999999999999</v>
@@ -6746,15 +7459,19 @@
       <c r="I176" s="4">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="J176" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="K176" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J176" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0501100000000001E-2</v>
+      </c>
+      <c r="K176" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0860243956283849E-2</v>
+      </c>
+      <c r="L176" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A177" s="4">
         <v>5.7</v>
       </c>
@@ -6767,11 +7484,11 @@
       <c r="D177" s="4">
         <v>9</v>
       </c>
-      <c r="E177" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F177" s="5" t="s">
-        <v>12</v>
+      <c r="E177" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G177" s="4">
         <v>0.28820000000000001</v>
@@ -6782,15 +7499,19 @@
       <c r="I177" s="4">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="J177" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="K177" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J177" s="2">
+        <f t="shared" si="4"/>
+        <v>2.3344200000000002E-2</v>
+      </c>
+      <c r="K177" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6150313805000415E-3</v>
+      </c>
+      <c r="L177" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A178" s="4">
         <v>5.7</v>
       </c>
@@ -6803,11 +7524,11 @@
       <c r="D178" s="4">
         <v>9</v>
       </c>
-      <c r="E178" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F178" s="5" t="s">
-        <v>12</v>
+      <c r="E178" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G178" s="4">
         <v>0.2833</v>
@@ -6818,15 +7539,19 @@
       <c r="I178" s="4">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="J178" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2100000000000002E-2</v>
-      </c>
-      <c r="K178" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J178" s="2">
+        <f t="shared" si="4"/>
+        <v>2.29473E-2</v>
+      </c>
+      <c r="K178" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L178" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A179" s="4">
         <v>5.7</v>
       </c>
@@ -6839,11 +7564,11 @@
       <c r="D179" s="4">
         <v>9</v>
       </c>
-      <c r="E179" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>12</v>
+      <c r="E179" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G179" s="4">
         <v>0.3296</v>
@@ -6854,15 +7579,19 @@
       <c r="I179" s="4">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="J179" s="1">
-        <f t="shared" si="2"/>
-        <v>2.4299999999999999E-2</v>
-      </c>
-      <c r="K179" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J179" s="2">
+        <f t="shared" si="4"/>
+        <v>2.6697600000000002E-2</v>
+      </c>
+      <c r="K179" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L179" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A180" s="4">
         <v>5.7</v>
       </c>
@@ -6875,11 +7604,11 @@
       <c r="D180" s="4">
         <v>9</v>
       </c>
-      <c r="E180" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F180" s="5" t="s">
-        <v>12</v>
+      <c r="E180" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G180" s="4">
         <v>0.34100000000000003</v>
@@ -6890,15 +7619,19 @@
       <c r="I180" s="4">
         <v>2.4400000000000002E-2</v>
       </c>
-      <c r="J180" s="1">
-        <f t="shared" si="2"/>
-        <v>2.4400000000000002E-2</v>
-      </c>
-      <c r="K180" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J180" s="2">
+        <f t="shared" si="4"/>
+        <v>2.7621000000000003E-2</v>
+      </c>
+      <c r="K180" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L180" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A181" s="4">
         <v>5.7</v>
       </c>
@@ -6911,11 +7644,11 @@
       <c r="D181" s="4">
         <v>9</v>
       </c>
-      <c r="E181" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F181" s="5" t="s">
-        <v>12</v>
+      <c r="E181" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G181" s="4">
         <v>0.23649999999999999</v>
@@ -6926,15 +7659,19 @@
       <c r="I181" s="4">
         <v>2.4E-2</v>
       </c>
-      <c r="J181" s="1">
-        <f t="shared" si="2"/>
-        <v>2.4E-2</v>
-      </c>
-      <c r="K181" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J181" s="2">
+        <f t="shared" si="4"/>
+        <v>1.91565E-2</v>
+      </c>
+      <c r="K181" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4457818222332166E-2</v>
+      </c>
+      <c r="L181" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A182" s="4">
         <v>5.7</v>
       </c>
@@ -6947,11 +7684,11 @@
       <c r="D182" s="4">
         <v>9</v>
       </c>
-      <c r="E182" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>12</v>
+      <c r="E182" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G182" s="4">
         <v>0.31209999999999999</v>
@@ -6962,15 +7699,19 @@
       <c r="I182" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="J182" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3E-2</v>
-      </c>
-      <c r="K182" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J182" s="2">
+        <f t="shared" si="4"/>
+        <v>2.52801E-2</v>
+      </c>
+      <c r="K182" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L182" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A183" s="4">
         <v>5.7</v>
       </c>
@@ -6983,11 +7724,11 @@
       <c r="D183" s="4">
         <v>9</v>
       </c>
-      <c r="E183" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F183" s="5" t="s">
-        <v>12</v>
+      <c r="E183" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G183" s="4">
         <v>0.31790000000000002</v>
@@ -6998,15 +7739,19 @@
       <c r="I183" s="4">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="J183" s="1">
-        <f t="shared" si="2"/>
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="K183" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J183" s="2">
+        <f t="shared" si="4"/>
+        <v>2.5749900000000003E-2</v>
+      </c>
+      <c r="K183" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L183" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A184" s="4">
         <v>5.7</v>
       </c>
@@ -7019,11 +7764,11 @@
       <c r="D184" s="4">
         <v>10</v>
       </c>
-      <c r="E184" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F184" s="5" t="s">
-        <v>12</v>
+      <c r="E184" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G184" s="4">
         <v>0.37080000000000002</v>
@@ -7034,15 +7779,19 @@
       <c r="I184" s="4">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="J184" s="1">
-        <f t="shared" si="2"/>
-        <v>2.7900000000000001E-2</v>
-      </c>
-      <c r="K184" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J184" s="2">
+        <f t="shared" si="4"/>
+        <v>3.0034800000000004E-2</v>
+      </c>
+      <c r="K184" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L184" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A185" s="4">
         <v>5.7</v>
       </c>
@@ -7055,11 +7804,11 @@
       <c r="D185" s="4">
         <v>10</v>
       </c>
-      <c r="E185" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F185" s="5" t="s">
-        <v>12</v>
+      <c r="E185" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G185" s="4">
         <v>0.36059999999999998</v>
@@ -7070,15 +7819,19 @@
       <c r="I185" s="4">
         <v>2.8299999999999999E-2</v>
       </c>
-      <c r="J185" s="1">
-        <f t="shared" si="2"/>
-        <v>2.8299999999999999E-2</v>
-      </c>
-      <c r="K185" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J185" s="2">
+        <f t="shared" si="4"/>
+        <v>2.9208599999999998E-2</v>
+      </c>
+      <c r="K185" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L185" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A186" s="4">
         <v>5.7</v>
       </c>
@@ -7091,11 +7844,11 @@
       <c r="D186" s="4">
         <v>10</v>
       </c>
-      <c r="E186" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F186" s="5" t="s">
-        <v>12</v>
+      <c r="E186" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G186" s="4">
         <v>0.28220000000000001</v>
@@ -7106,15 +7859,19 @@
       <c r="I186" s="4">
         <v>2.8500000000000001E-2</v>
       </c>
-      <c r="J186" s="1">
-        <f t="shared" si="2"/>
-        <v>2.8500000000000001E-2</v>
-      </c>
-      <c r="K186" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J186" s="2">
+        <f t="shared" si="4"/>
+        <v>2.2858200000000002E-2</v>
+      </c>
+      <c r="K186" s="2">
+        <f t="shared" si="5"/>
+        <v>1.7022123626621914E-2</v>
+      </c>
+      <c r="L186" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A187" s="4">
         <v>5.7</v>
       </c>
@@ -7127,11 +7884,11 @@
       <c r="D187" s="4">
         <v>10</v>
       </c>
-      <c r="E187" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F187" s="5" t="s">
-        <v>12</v>
+      <c r="E187" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G187" s="4">
         <v>0.3029</v>
@@ -7142,15 +7899,19 @@
       <c r="I187" s="4">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="J187" s="1">
-        <f t="shared" si="2"/>
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="K187" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J187" s="2">
+        <f t="shared" si="4"/>
+        <v>2.4534900000000002E-2</v>
+      </c>
+      <c r="K187" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5082396427292312E-2</v>
+      </c>
+      <c r="L187" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A188" s="4">
         <v>5.7</v>
       </c>
@@ -7163,11 +7924,11 @@
       <c r="D188" s="4">
         <v>10</v>
       </c>
-      <c r="E188" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F188" s="5" t="s">
-        <v>12</v>
+      <c r="E188" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G188" s="4">
         <v>0.37880000000000003</v>
@@ -7178,15 +7939,19 @@
       <c r="I188" s="4">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="J188" s="1">
-        <f t="shared" si="2"/>
-        <v>2.9100000000000001E-2</v>
-      </c>
-      <c r="K188" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J188" s="2">
+        <f t="shared" si="4"/>
+        <v>3.0682800000000003E-2</v>
+      </c>
+      <c r="K188" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L188" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A189" s="4">
         <v>5.7</v>
       </c>
@@ -7199,11 +7964,11 @@
       <c r="D189" s="4">
         <v>10</v>
       </c>
-      <c r="E189" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F189" s="5" t="s">
-        <v>12</v>
+      <c r="E189" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G189" s="4">
         <v>0.27829999999999999</v>
@@ -7214,15 +7979,19 @@
       <c r="I189" s="4">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="J189" s="1">
-        <f t="shared" si="2"/>
-        <v>3.0200000000000001E-2</v>
-      </c>
-      <c r="K189" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J189" s="2">
+        <f t="shared" si="4"/>
+        <v>2.2542300000000001E-2</v>
+      </c>
+      <c r="K189" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0096883109328171E-2</v>
+      </c>
+      <c r="L189" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A190" s="4">
         <v>5.7</v>
       </c>
@@ -7235,11 +8004,11 @@
       <c r="D190" s="4">
         <v>10</v>
       </c>
-      <c r="E190" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F190" s="5" t="s">
-        <v>12</v>
+      <c r="E190" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G190" s="4">
         <v>0.33360000000000001</v>
@@ -7250,15 +8019,19 @@
       <c r="I190" s="4">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="J190" s="1">
-        <f t="shared" si="2"/>
-        <v>2.9100000000000001E-2</v>
-      </c>
-      <c r="K190" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J190" s="2">
+        <f t="shared" si="4"/>
+        <v>2.70216E-2</v>
+      </c>
+      <c r="K190" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0800145065692409E-2</v>
+      </c>
+      <c r="L190" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A191" s="4">
         <v>5.7</v>
       </c>
@@ -7271,11 +8044,11 @@
       <c r="D191" s="4">
         <v>10</v>
       </c>
-      <c r="E191" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F191" s="5" t="s">
-        <v>12</v>
+      <c r="E191" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G191" s="4">
         <v>0.36969999999999997</v>
@@ -7286,15 +8059,19 @@
       <c r="I191" s="4">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="J191" s="1">
-        <f t="shared" si="2"/>
-        <v>2.9100000000000001E-2</v>
-      </c>
-      <c r="K191" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J191" s="2">
+        <f t="shared" si="4"/>
+        <v>2.9945699999999999E-2</v>
+      </c>
+      <c r="K191" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L191" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A192" s="4">
         <v>5.7</v>
       </c>
@@ -7307,11 +8084,11 @@
       <c r="D192" s="4">
         <v>10</v>
       </c>
-      <c r="E192" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F192" s="5" t="s">
-        <v>12</v>
+      <c r="E192" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G192" s="4">
         <v>0.36170000000000002</v>
@@ -7322,15 +8099,19 @@
       <c r="I192" s="4">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="J192" s="1">
-        <f t="shared" si="2"/>
-        <v>2.9100000000000001E-2</v>
-      </c>
-      <c r="K192" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J192" s="2">
+        <f t="shared" si="4"/>
+        <v>2.9297700000000003E-2</v>
+      </c>
+      <c r="K192" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L192" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A193" s="4">
         <v>5.7</v>
       </c>
@@ -7343,11 +8124,11 @@
       <c r="D193" s="4">
         <v>10</v>
       </c>
-      <c r="E193" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F193" s="5" t="s">
-        <v>12</v>
+      <c r="E193" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G193" s="4">
         <v>0.28110000000000002</v>
@@ -7358,15 +8139,19 @@
       <c r="I193" s="4">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="J193" s="1">
-        <f t="shared" si="2"/>
-        <v>3.0700000000000002E-2</v>
-      </c>
-      <c r="K193" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J193" s="2">
+        <f t="shared" si="4"/>
+        <v>2.27691E-2</v>
+      </c>
+      <c r="K193" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0592670666768797E-2</v>
+      </c>
+      <c r="L193" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A194" s="4">
         <v>5.7</v>
       </c>
@@ -7379,11 +8164,11 @@
       <c r="D194" s="4">
         <v>10</v>
       </c>
-      <c r="E194" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>12</v>
+      <c r="E194" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G194" s="4">
         <v>0.45429999999999998</v>
@@ -7394,15 +8179,19 @@
       <c r="I194" s="4">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="J194" s="1">
-        <f t="shared" ref="J194:J257" si="3">SIGN(G194)*I194</f>
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="K194" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J194" s="2">
+        <f t="shared" ref="J194:J204" si="6">G194*0.081</f>
+        <v>3.6798299999999999E-2</v>
+      </c>
+      <c r="K194" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L194" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A195" s="4">
         <v>5.7</v>
       </c>
@@ -7415,11 +8204,11 @@
       <c r="D195" s="4">
         <v>10</v>
       </c>
-      <c r="E195" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F195" s="5" t="s">
-        <v>12</v>
+      <c r="E195" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G195" s="4">
         <v>0.47239999999999999</v>
@@ -7430,15 +8219,19 @@
       <c r="I195" s="4">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="J195" s="1">
-        <f t="shared" si="3"/>
-        <v>2.9499999999999998E-2</v>
-      </c>
-      <c r="K195" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J195" s="2">
+        <f t="shared" si="6"/>
+        <v>3.8264399999999997E-2</v>
+      </c>
+      <c r="K195" s="2">
+        <f t="shared" ref="K195:K204" si="7">MAX(I195^2-J195^2,0)^0.5*SIGN(G195)</f>
+        <v>0</v>
+      </c>
+      <c r="L195" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A196" s="4">
         <v>5.7</v>
       </c>
@@ -7451,11 +8244,11 @@
       <c r="D196" s="4">
         <v>10</v>
       </c>
-      <c r="E196" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F196" s="5" t="s">
-        <v>12</v>
+      <c r="E196" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G196" s="4">
         <v>0.35110000000000002</v>
@@ -7466,15 +8259,19 @@
       <c r="I196" s="4">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="J196" s="1">
-        <f t="shared" si="3"/>
-        <v>2.9100000000000001E-2</v>
-      </c>
-      <c r="K196" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J196" s="2">
+        <f t="shared" si="6"/>
+        <v>2.8439100000000002E-2</v>
+      </c>
+      <c r="K196" s="2">
+        <f t="shared" si="7"/>
+        <v>6.1666515379093607E-3</v>
+      </c>
+      <c r="L196" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A197" s="4">
         <v>5.7</v>
       </c>
@@ -7487,11 +8284,11 @@
       <c r="D197" s="4">
         <v>10</v>
       </c>
-      <c r="E197" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F197" s="5" t="s">
-        <v>12</v>
+      <c r="E197" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G197" s="4">
         <v>0.45300000000000001</v>
@@ -7502,15 +8299,19 @@
       <c r="I197" s="4">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="J197" s="1">
-        <f t="shared" si="3"/>
-        <v>2.9600000000000001E-2</v>
-      </c>
-      <c r="K197" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J197" s="2">
+        <f t="shared" si="6"/>
+        <v>3.6693000000000003E-2</v>
+      </c>
+      <c r="K197" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L197" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A198" s="4">
         <v>5.7</v>
       </c>
@@ -7523,11 +8324,11 @@
       <c r="D198" s="4">
         <v>10</v>
       </c>
-      <c r="E198" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F198" s="5" t="s">
-        <v>12</v>
+      <c r="E198" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G198" s="4">
         <v>0.314</v>
@@ -7538,15 +8339,19 @@
       <c r="I198" s="4">
         <v>3.09E-2</v>
       </c>
-      <c r="J198" s="1">
-        <f t="shared" si="3"/>
-        <v>3.09E-2</v>
-      </c>
-      <c r="K198" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J198" s="2">
+        <f t="shared" si="6"/>
+        <v>2.5434000000000002E-2</v>
+      </c>
+      <c r="K198" s="2">
+        <f t="shared" si="7"/>
+        <v>1.7547696259053495E-2</v>
+      </c>
+      <c r="L198" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A199" s="4">
         <v>5.7</v>
       </c>
@@ -7559,11 +8364,11 @@
       <c r="D199" s="4">
         <v>10</v>
       </c>
-      <c r="E199" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F199" s="5" t="s">
-        <v>12</v>
+      <c r="E199" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G199" s="4">
         <v>0.36509999999999998</v>
@@ -7574,15 +8379,19 @@
       <c r="I199" s="4">
         <v>0.03</v>
       </c>
-      <c r="J199" s="1">
-        <f t="shared" si="3"/>
-        <v>0.03</v>
-      </c>
-      <c r="K199" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J199" s="2">
+        <f t="shared" si="6"/>
+        <v>2.9573099999999998E-2</v>
+      </c>
+      <c r="K199" s="2">
+        <f t="shared" si="7"/>
+        <v>5.0429908179571506E-3</v>
+      </c>
+      <c r="L199" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A200" s="4">
         <v>5.7</v>
       </c>
@@ -7595,11 +8404,11 @@
       <c r="D200" s="4">
         <v>10</v>
       </c>
-      <c r="E200" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F200" s="5" t="s">
-        <v>12</v>
+      <c r="E200" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G200" s="4">
         <v>0.34839999999999999</v>
@@ -7610,15 +8419,19 @@
       <c r="I200" s="4">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="J200" s="1">
-        <f t="shared" si="3"/>
-        <v>2.9100000000000001E-2</v>
-      </c>
-      <c r="K200" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J200" s="2">
+        <f t="shared" si="6"/>
+        <v>2.82204E-2</v>
+      </c>
+      <c r="K200" s="2">
+        <f t="shared" si="7"/>
+        <v>7.1006354532534679E-3</v>
+      </c>
+      <c r="L200" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A201" s="4">
         <v>5.7</v>
       </c>
@@ -7631,11 +8444,11 @@
       <c r="D201" s="4">
         <v>10</v>
       </c>
-      <c r="E201" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F201" s="5" t="s">
-        <v>12</v>
+      <c r="E201" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G201" s="4">
         <v>0.4919</v>
@@ -7646,15 +8459,19 @@
       <c r="I201" s="4">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="J201" s="1">
-        <f t="shared" si="3"/>
-        <v>3.5799999999999998E-2</v>
-      </c>
-      <c r="K201" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J201" s="2">
+        <f t="shared" si="6"/>
+        <v>3.9843900000000002E-2</v>
+      </c>
+      <c r="K201" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L201" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A202" s="4">
         <v>5.7</v>
       </c>
@@ -7667,11 +8484,11 @@
       <c r="D202" s="4">
         <v>10</v>
       </c>
-      <c r="E202" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F202" s="5" t="s">
-        <v>12</v>
+      <c r="E202" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G202" s="4">
         <v>0.37759999999999999</v>
@@ -7682,15 +8499,19 @@
       <c r="I202" s="4">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="J202" s="1">
-        <f t="shared" si="3"/>
-        <v>3.6200000000000003E-2</v>
-      </c>
-      <c r="K202" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J202" s="2">
+        <f t="shared" si="6"/>
+        <v>3.0585600000000001E-2</v>
+      </c>
+      <c r="K202" s="2">
+        <f t="shared" si="7"/>
+        <v>1.9363911604838524E-2</v>
+      </c>
+      <c r="L202" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A203" s="4">
         <v>5.7</v>
       </c>
@@ -7703,11 +8524,11 @@
       <c r="D203" s="4">
         <v>10</v>
       </c>
-      <c r="E203" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F203" s="5" t="s">
-        <v>12</v>
+      <c r="E203" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G203" s="4">
         <v>0.32740000000000002</v>
@@ -7718,15 +8539,19 @@
       <c r="I203" s="4">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="J203" s="1">
-        <f t="shared" si="3"/>
-        <v>3.6700000000000003E-2</v>
-      </c>
-      <c r="K203" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J203" s="2">
+        <f t="shared" si="6"/>
+        <v>2.6519400000000002E-2</v>
+      </c>
+      <c r="K203" s="2">
+        <f t="shared" si="7"/>
+        <v>2.5369497898854843E-2</v>
+      </c>
+      <c r="L203" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A204" s="4">
         <v>5.7</v>
       </c>
@@ -7739,11 +8564,11 @@
       <c r="D204" s="4">
         <v>10</v>
       </c>
-      <c r="E204" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F204" s="5" t="s">
-        <v>12</v>
+      <c r="E204" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G204" s="4">
         <v>0.45710000000000001</v>
@@ -7754,12 +8579,16 @@
       <c r="I204" s="4">
         <v>3.6900000000000002E-2</v>
       </c>
-      <c r="J204" s="1">
-        <f t="shared" si="3"/>
-        <v>3.6900000000000002E-2</v>
-      </c>
-      <c r="K204" s="4" t="s">
-        <v>13</v>
+      <c r="J204" s="2">
+        <f t="shared" si="6"/>
+        <v>3.7025099999999998E-2</v>
+      </c>
+      <c r="K204" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L204" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
